--- a/capiq_data/in_process_data/IQ3632895.xlsx
+++ b/capiq_data/in_process_data/IQ3632895.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E05DB88-475F-4CA0-9575-B3F1AFB9D362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34175F59-71C2-4E4F-AE20-D6D76B568353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"38ee5099-aae6-4ef3-848f-79b02563c9b0"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"3e166303-eb91-4fe7-a70f-a5cad513e423"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>325.50900000000001</v>
+        <v>-13.334</v>
       </c>
       <c r="D2">
-        <v>2015.046</v>
+        <v>147.13</v>
       </c>
       <c r="E2">
-        <v>673.01900000000001</v>
+        <v>64.328000000000003</v>
       </c>
       <c r="F2">
-        <v>3135.5520000000001</v>
+        <v>75.147000000000006</v>
       </c>
       <c r="G2">
-        <v>4058.9070000000002</v>
+        <v>117.023</v>
       </c>
       <c r="H2">
-        <v>21044.308000000001</v>
+        <v>1232.385</v>
       </c>
       <c r="I2">
-        <v>113.505</v>
+        <v>23.835000000000001</v>
       </c>
       <c r="J2">
-        <v>9373.7549999999992</v>
+        <v>863.29300000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2600.413</v>
+        <v>177.41</v>
       </c>
       <c r="O2">
-        <v>12609.741</v>
+        <v>1051.1969999999999</v>
       </c>
       <c r="P2">
-        <v>10140.823</v>
+        <v>913.41200000000003</v>
       </c>
       <c r="Q2">
-        <v>642.36900000000003</v>
+        <v>-6.8209999999999997</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>34000</v>
+        <v>4000</v>
       </c>
       <c r="T2">
-        <v>8434.5669999999991</v>
+        <v>181.18799999999999</v>
       </c>
       <c r="U2">
-        <v>3037.0810000000001</v>
+        <v>42.606000000000002</v>
       </c>
       <c r="V2">
-        <v>662.15300000000002</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="W2">
-        <v>-23.35</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>127.36</v>
+        <v>-5.899</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +931,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>325.50900000000001</v>
+        <v>-13.334</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>289.32299999999998</v>
+        <v>-0.36099999999999999</v>
       </c>
       <c r="D3">
-        <v>2111.9189999999999</v>
+        <v>141.88999999999999</v>
       </c>
       <c r="E3">
-        <v>803.1</v>
+        <v>67.869</v>
       </c>
       <c r="F3">
-        <v>982.98199999999997</v>
+        <v>71.024000000000001</v>
       </c>
       <c r="G3">
-        <v>4205.2849999999999</v>
+        <v>119.532</v>
       </c>
       <c r="H3">
-        <v>21236.99</v>
+        <v>1230.9570000000001</v>
       </c>
       <c r="I3">
-        <v>87.733999999999995</v>
+        <v>18.716000000000001</v>
       </c>
       <c r="J3">
-        <v>9185.7520000000004</v>
+        <v>846.76300000000003</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +972,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-121.721</v>
+        <v>-5.4989999999999997</v>
       </c>
       <c r="N3">
-        <v>2586.9740000000002</v>
+        <v>189.68700000000001</v>
       </c>
       <c r="O3">
-        <v>12411.208000000001</v>
+        <v>1045.0899999999999</v>
       </c>
       <c r="P3">
-        <v>10102.759</v>
+        <v>908.92399999999998</v>
       </c>
       <c r="Q3">
-        <v>96.86</v>
+        <v>-0.83899999999999997</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>8825.7819999999992</v>
+        <v>185.86699999999999</v>
       </c>
       <c r="U3">
-        <v>3133.9409999999998</v>
+        <v>41.767000000000003</v>
       </c>
       <c r="V3">
-        <v>418.37799999999999</v>
+        <v>13.936</v>
       </c>
       <c r="W3">
-        <v>-19.597999999999999</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-147.79300000000001</v>
+        <v>-5.1840000000000002</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>289.32299999999998</v>
+        <v>-0.36099999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>410.637</v>
+        <v>-4.6260000000000003</v>
       </c>
       <c r="D4">
-        <v>2345.096</v>
+        <v>137.00899999999999</v>
       </c>
       <c r="E4">
-        <v>968.98800000000006</v>
+        <v>64.923000000000002</v>
       </c>
       <c r="F4">
-        <v>1141.7909999999999</v>
+        <v>68.37</v>
       </c>
       <c r="G4">
-        <v>4721.3050000000003</v>
+        <v>115.874</v>
       </c>
       <c r="H4">
-        <v>21737.156999999999</v>
+        <v>1226.5139999999999</v>
       </c>
       <c r="I4">
-        <v>92.953000000000003</v>
+        <v>19.271999999999998</v>
       </c>
       <c r="J4">
-        <v>8985.3960000000006</v>
+        <v>837.92399999999998</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2739.3420000000001</v>
+        <v>195.56</v>
       </c>
       <c r="O4">
-        <v>12370.507</v>
+        <v>1040.2349999999999</v>
       </c>
       <c r="P4">
-        <v>10058.879999999999</v>
+        <v>927.71</v>
       </c>
       <c r="Q4">
-        <v>345.16500000000002</v>
+        <v>-1.9950000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>9366.65</v>
+        <v>186.279</v>
       </c>
       <c r="U4">
-        <v>3479.1060000000002</v>
+        <v>39.771999999999998</v>
       </c>
       <c r="V4">
-        <v>663.14499999999998</v>
+        <v>-6.1719999999999997</v>
       </c>
       <c r="W4">
-        <v>-19.219000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-157.19300000000001</v>
+        <v>16.283999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>410.637</v>
+        <v>-4.6260000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>424.87900000000002</v>
+        <v>-12.705</v>
       </c>
       <c r="D5">
-        <v>2409.375</v>
+        <v>123.154</v>
       </c>
       <c r="E5">
-        <v>1112.896</v>
+        <v>54.354999999999997</v>
       </c>
       <c r="F5">
-        <v>1191.4939999999999</v>
+        <v>59.673000000000002</v>
       </c>
       <c r="G5">
-        <v>5342.6559999999999</v>
+        <v>122.152</v>
       </c>
       <c r="H5">
-        <v>21965.251</v>
+        <v>1282.5329999999999</v>
       </c>
       <c r="I5">
-        <v>103.319</v>
+        <v>26.7</v>
       </c>
       <c r="J5">
-        <v>9282.0840000000007</v>
+        <v>916.35900000000004</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2332.971</v>
+        <v>182.05799999999999</v>
       </c>
       <c r="O5">
-        <v>12267.013000000001</v>
+        <v>1103.614</v>
       </c>
       <c r="P5">
-        <v>9739.4279999999999</v>
+        <v>940.47199999999998</v>
       </c>
       <c r="Q5">
-        <v>472.46899999999999</v>
+        <v>15.717000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>9698.2379999999994</v>
+        <v>178.91900000000001</v>
       </c>
       <c r="U5">
-        <v>3951.5749999999998</v>
+        <v>55.488999999999997</v>
       </c>
       <c r="V5">
-        <v>847.65</v>
+        <v>27.954000000000001</v>
       </c>
       <c r="W5">
-        <v>-19.14</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-215.625</v>
+        <v>8.3670000000000009</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>424.87900000000002</v>
+        <v>-12.705</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>435.28399999999999</v>
+        <v>-6.4749999999999996</v>
       </c>
       <c r="D6">
-        <v>2544.355</v>
+        <v>121.84699999999999</v>
       </c>
       <c r="E6">
-        <v>1296.52</v>
+        <v>57.091999999999999</v>
       </c>
       <c r="F6">
-        <v>3891.8009999999999</v>
+        <v>64.850999999999999</v>
       </c>
       <c r="G6">
-        <v>5397.152</v>
+        <v>123.283</v>
       </c>
       <c r="H6">
-        <v>22244.123</v>
+        <v>1271.7860000000001</v>
       </c>
       <c r="I6">
-        <v>104.113</v>
+        <v>36.353000000000002</v>
       </c>
       <c r="J6">
-        <v>9577.1309999999994</v>
+        <v>811.86900000000003</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2498.7060000000001</v>
+        <v>278.85599999999999</v>
       </c>
       <c r="O6">
-        <v>12804.971</v>
+        <v>1093.999</v>
       </c>
       <c r="P6">
-        <v>10032.977000000001</v>
+        <v>940.98199999999997</v>
       </c>
       <c r="Q6">
-        <v>-48.856999999999999</v>
+        <v>-0.55300000000000005</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="T6">
-        <v>9439.152</v>
+        <v>177.78700000000001</v>
       </c>
       <c r="U6">
-        <v>3902.7179999999998</v>
+        <v>54.936</v>
       </c>
       <c r="V6">
-        <v>733.32299999999998</v>
+        <v>15.074</v>
       </c>
       <c r="W6">
-        <v>-17.34</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-572.85</v>
+        <v>-2.698</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1263,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>435.28399999999999</v>
+        <v>-6.4749999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>498.94200000000001</v>
+        <v>5.0880000000000001</v>
       </c>
       <c r="D7">
-        <v>2762.7420000000002</v>
+        <v>136.43299999999999</v>
       </c>
       <c r="E7">
-        <v>1530.34</v>
+        <v>64.262</v>
       </c>
       <c r="F7">
-        <v>1328.279</v>
+        <v>74.977000000000004</v>
       </c>
       <c r="G7">
-        <v>5722.7389999999996</v>
+        <v>108.444</v>
       </c>
       <c r="H7">
-        <v>22871.031999999999</v>
+        <v>1250.6669999999999</v>
       </c>
       <c r="I7">
-        <v>105.205</v>
+        <v>24.294</v>
       </c>
       <c r="J7">
-        <v>9382.6489999999994</v>
+        <v>718.98400000000004</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-306.23099999999999</v>
+        <v>-23.256</v>
       </c>
       <c r="N7">
-        <v>2492.8180000000002</v>
+        <v>341.786</v>
       </c>
       <c r="O7">
-        <v>12573.183999999999</v>
+        <v>1062.1289999999999</v>
       </c>
       <c r="P7">
-        <v>9851.973</v>
+        <v>922.94500000000005</v>
       </c>
       <c r="Q7">
-        <v>153.642</v>
+        <v>-19.571000000000002</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>10297.848</v>
+        <v>188.53800000000001</v>
       </c>
       <c r="U7">
-        <v>4056.36</v>
+        <v>35.365000000000002</v>
       </c>
       <c r="V7">
-        <v>667.45100000000002</v>
+        <v>21.274000000000001</v>
       </c>
       <c r="W7">
-        <v>-205.245</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-144.57599999999999</v>
+        <v>-18.391999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>498.94200000000001</v>
+        <v>5.0880000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>240.58699999999999</v>
+        <v>-49.853999999999999</v>
       </c>
       <c r="D8">
-        <v>2581.9059999999999</v>
+        <v>128.16499999999999</v>
       </c>
       <c r="E8">
-        <v>1561.7760000000001</v>
+        <v>49.445</v>
       </c>
       <c r="F8">
-        <v>1155.761</v>
+        <v>70.918000000000006</v>
       </c>
       <c r="G8">
-        <v>5225.5969999999998</v>
+        <v>239.345</v>
       </c>
       <c r="H8">
-        <v>22416.806</v>
+        <v>1584.153</v>
       </c>
       <c r="I8">
-        <v>134.447</v>
+        <v>16.594999999999999</v>
       </c>
       <c r="J8">
-        <v>9276.4760000000006</v>
+        <v>1217.5</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2249.4699999999998</v>
+        <v>220.958</v>
       </c>
       <c r="O8">
-        <v>12229.776</v>
+        <v>1439.8050000000001</v>
       </c>
       <c r="P8">
-        <v>9374.2129999999997</v>
+        <v>1330.1949999999999</v>
       </c>
       <c r="Q8">
-        <v>-534.36</v>
+        <v>15.814</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>10187.030000000001</v>
+        <v>144.34800000000001</v>
       </c>
       <c r="U8">
-        <v>3522</v>
+        <v>51.179000000000002</v>
       </c>
       <c r="V8">
-        <v>750.86800000000005</v>
+        <v>-5.7080000000000002</v>
       </c>
       <c r="W8">
-        <v>-205.34100000000001</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-933.62300000000005</v>
+        <v>337.61</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>240.58699999999999</v>
+        <v>-49.853999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>349.78199999999998</v>
+        <v>0.41</v>
       </c>
       <c r="D9">
-        <v>2709.482</v>
+        <v>152.756</v>
       </c>
       <c r="E9">
-        <v>1702.4580000000001</v>
+        <v>51.279000000000003</v>
       </c>
       <c r="F9">
-        <v>1211.1279999999999</v>
+        <v>88.494</v>
       </c>
       <c r="G9">
-        <v>5599.0770000000002</v>
+        <v>171.965</v>
       </c>
       <c r="H9">
-        <v>23158.362000000001</v>
+        <v>1509.0619999999999</v>
       </c>
       <c r="I9">
-        <v>150.19200000000001</v>
+        <v>16.207999999999998</v>
       </c>
       <c r="J9">
-        <v>9397.866</v>
+        <v>1216.875</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2519.9769999999999</v>
+        <v>140.167</v>
       </c>
       <c r="O9">
-        <v>12634.308000000001</v>
+        <v>1358.3009999999999</v>
       </c>
       <c r="P9">
-        <v>9496.0020000000004</v>
+        <v>1219.375</v>
       </c>
       <c r="Q9">
-        <v>223.41499999999999</v>
+        <v>44.463000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>10524.054</v>
+        <v>150.761</v>
       </c>
       <c r="U9">
-        <v>3745.415</v>
+        <v>95.641999999999996</v>
       </c>
       <c r="V9">
-        <v>754.51400000000001</v>
+        <v>52.006</v>
       </c>
       <c r="W9">
-        <v>-205.46600000000001</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-227.816</v>
+        <v>-118.922</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>349.78199999999998</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>434.78199999999998</v>
+        <v>5.9640000000000004</v>
       </c>
       <c r="D10">
-        <v>3077.002</v>
+        <v>154.32300000000001</v>
       </c>
       <c r="E10">
-        <v>1771.732</v>
+        <v>53.311999999999998</v>
       </c>
       <c r="F10">
-        <v>4896.3890000000001</v>
+        <v>89.073999999999998</v>
       </c>
       <c r="G10">
-        <v>4477.5140000000001</v>
+        <v>179.00800000000001</v>
       </c>
       <c r="H10">
-        <v>22163.651999999998</v>
+        <v>1516.681</v>
       </c>
       <c r="I10">
-        <v>106.498</v>
+        <v>12.201000000000001</v>
       </c>
       <c r="J10">
-        <v>10132.264999999999</v>
+        <v>1216.25</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2622.8229999999999</v>
+        <v>136.58099999999999</v>
       </c>
       <c r="O10">
-        <v>13505.24</v>
+        <v>1353.953</v>
       </c>
       <c r="P10">
-        <v>10230.066999999999</v>
+        <v>1218.75</v>
       </c>
       <c r="Q10">
-        <v>-1232.6489999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>46000</v>
+        <v>4000</v>
       </c>
       <c r="T10">
-        <v>8658.4120000000003</v>
+        <v>162.72800000000001</v>
       </c>
       <c r="U10">
-        <v>2512.7660000000001</v>
+        <v>93.742000000000004</v>
       </c>
       <c r="V10">
-        <v>884.92399999999998</v>
+        <v>10.523999999999999</v>
       </c>
       <c r="W10">
-        <v>-301.89787000000001</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-1739.2909999999999</v>
+        <v>-1.1339999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>434.78199999999998</v>
+        <v>5.9640000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>571.96100000000001</v>
+        <v>13.02</v>
       </c>
       <c r="D11">
-        <v>3302.7190000000001</v>
+        <v>158.66499999999999</v>
       </c>
       <c r="E11">
-        <v>1973.9839999999999</v>
+        <v>50.351999999999997</v>
       </c>
       <c r="F11">
-        <v>1514.912</v>
+        <v>91.411000000000001</v>
       </c>
       <c r="G11">
-        <v>4501.701</v>
+        <v>199.339</v>
       </c>
       <c r="H11">
-        <v>22010.953000000001</v>
+        <v>1556.8779999999999</v>
       </c>
       <c r="I11">
-        <v>132.93100000000001</v>
+        <v>13.771000000000001</v>
       </c>
       <c r="J11">
-        <v>9731.0020000000004</v>
+        <v>1215.625</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="M11">
-        <v>-334.57799999999997</v>
+        <v>-0.625</v>
       </c>
       <c r="N11">
-        <v>2689.0259999999998</v>
+        <v>154.12700000000001</v>
       </c>
       <c r="O11">
-        <v>13166.828</v>
+        <v>1374.7670000000001</v>
       </c>
       <c r="P11">
-        <v>9828.3490000000002</v>
+        <v>1218.125</v>
       </c>
       <c r="Q11">
-        <v>-133.018</v>
+        <v>15.618</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>8844.125</v>
+        <v>182.11099999999999</v>
       </c>
       <c r="U11">
-        <v>2379.748</v>
+        <v>109.36</v>
       </c>
       <c r="V11">
-        <v>885.51800000000003</v>
+        <v>52.616</v>
       </c>
       <c r="W11">
-        <v>-288.55399999999997</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-819.09199999999998</v>
+        <v>-1.0580000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1678,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>571.96100000000001</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>529.75300000000004</v>
+        <v>9.577</v>
       </c>
       <c r="D12">
-        <v>3242.9409999999998</v>
+        <v>176.892</v>
       </c>
       <c r="E12">
-        <v>1803.357</v>
+        <v>51.347999999999999</v>
       </c>
       <c r="F12">
-        <v>1470</v>
+        <v>101.51300000000001</v>
       </c>
       <c r="G12">
-        <v>4465.3590000000004</v>
+        <v>187.62299999999999</v>
       </c>
       <c r="H12">
-        <v>21783.824000000001</v>
+        <v>1606.319</v>
       </c>
       <c r="I12">
-        <v>121.035</v>
+        <v>13.715999999999999</v>
       </c>
       <c r="J12">
-        <v>8511.2309999999998</v>
+        <v>1260</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3575.4270000000001</v>
+        <v>144.13800000000001</v>
       </c>
       <c r="O12">
-        <v>12826.777</v>
+        <v>1409.0930000000001</v>
       </c>
       <c r="P12">
-        <v>9491.3989999999994</v>
+        <v>1267.5</v>
       </c>
       <c r="Q12">
-        <v>134.393</v>
+        <v>-32.999000000000002</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>8957.0470000000005</v>
+        <v>197.226</v>
       </c>
       <c r="U12">
-        <v>2514.1410000000001</v>
+        <v>76.361000000000004</v>
       </c>
       <c r="V12">
-        <v>1138.6890000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="W12">
-        <v>-288.98500000000001</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-756.51199999999994</v>
+        <v>49.567999999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>529.75300000000004</v>
+        <v>24.952999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>626.74400000000003</v>
+        <v>13.47</v>
       </c>
       <c r="D13">
-        <v>3568.54</v>
+        <v>182.773</v>
       </c>
       <c r="E13">
-        <v>1848.5219999999999</v>
+        <v>57.86</v>
       </c>
       <c r="F13">
-        <v>1656.481</v>
+        <v>99.91</v>
       </c>
       <c r="G13">
-        <v>5207.268</v>
+        <v>352.74400000000003</v>
       </c>
       <c r="H13">
-        <v>22485.095000000001</v>
+        <v>1798.8910000000001</v>
       </c>
       <c r="I13">
-        <v>114.741</v>
+        <v>14.76</v>
       </c>
       <c r="J13">
-        <v>8461.9920000000002</v>
+        <v>1285.075</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4045.1179999999999</v>
+        <v>290.33600000000001</v>
       </c>
       <c r="O13">
-        <v>13254.099</v>
+        <v>1581.9449999999999</v>
       </c>
       <c r="P13">
-        <v>9763.616</v>
+        <v>1416.875</v>
       </c>
       <c r="Q13">
-        <v>694.97900000000004</v>
+        <v>64.150999999999996</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>9230.9959999999992</v>
+        <v>216.946</v>
       </c>
       <c r="U13">
-        <v>3209.12</v>
+        <v>145.99600000000001</v>
       </c>
       <c r="V13">
-        <v>1136.576</v>
+        <v>63.81</v>
       </c>
       <c r="W13">
-        <v>-288.46199999999999</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-237.798</v>
+        <v>142.17599999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,39 +1844,39 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>626.74400000000003</v>
+        <v>-1.9059999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>577.53899999999999</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="D14">
-        <v>3655.6849999999999</v>
+        <v>173.42400000000001</v>
       </c>
       <c r="E14">
-        <v>1713.7180000000001</v>
+        <v>54.197000000000003</v>
       </c>
       <c r="F14">
-        <v>6152.0349999999999</v>
+        <v>102.07</v>
       </c>
       <c r="G14">
-        <v>5515.5389999999998</v>
+        <v>272.73899999999998</v>
       </c>
       <c r="H14">
-        <v>22724.263999999999</v>
+        <v>1917.0350000000001</v>
       </c>
       <c r="I14">
-        <v>119.194</v>
+        <v>16.678999999999998</v>
       </c>
       <c r="J14">
-        <v>9382.7520000000004</v>
+        <v>1525.116</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3129.665</v>
+        <v>223.36600000000001</v>
       </c>
       <c r="O14">
-        <v>13223.735000000001</v>
+        <v>1754.9269999999999</v>
       </c>
       <c r="P14">
-        <v>9760.259</v>
+        <v>1566.4949999999999</v>
       </c>
       <c r="Q14">
-        <v>391.29399999999998</v>
+        <v>-0.46</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>48500</v>
+        <v>5750</v>
       </c>
       <c r="T14">
-        <v>9500.5290000000005</v>
+        <v>162.108</v>
       </c>
       <c r="U14">
-        <v>3600.4140000000002</v>
+        <v>152.79300000000001</v>
       </c>
       <c r="V14">
-        <v>1278.6289999999999</v>
+        <v>20.158999999999999</v>
       </c>
       <c r="W14">
-        <v>-698.048</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-619.048</v>
+        <v>16.834</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,39 +1927,39 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>577.53899999999999</v>
+        <v>2.3809999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>776.18499999999995</v>
+        <v>49.915999999999997</v>
       </c>
       <c r="D15">
-        <v>4010.384</v>
+        <v>239.18600000000001</v>
       </c>
       <c r="E15">
-        <v>1781.09</v>
+        <v>64.135999999999996</v>
       </c>
       <c r="F15">
-        <v>1870.509</v>
+        <v>148.364</v>
       </c>
       <c r="G15">
-        <v>5242.1120000000001</v>
+        <v>267.61500000000001</v>
       </c>
       <c r="H15">
-        <v>22474.600999999999</v>
+        <v>1892.0830000000001</v>
       </c>
       <c r="I15">
-        <v>131.714</v>
+        <v>16.141999999999999</v>
       </c>
       <c r="J15">
-        <v>9968.8790000000008</v>
+        <v>1432.625</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1968,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-828.06299999999999</v>
+        <v>-3.8719999999999999</v>
       </c>
       <c r="N15">
-        <v>2959.2550000000001</v>
+        <v>194.73699999999999</v>
       </c>
       <c r="O15">
-        <v>13641.588</v>
+        <v>1633.7080000000001</v>
       </c>
       <c r="P15">
-        <v>10273.825999999999</v>
+        <v>1446.692</v>
       </c>
       <c r="Q15">
-        <v>-297.012</v>
+        <v>7.7720000000000002</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>8833.0130000000008</v>
+        <v>258.375</v>
       </c>
       <c r="U15">
-        <v>3303.402</v>
+        <v>151.58199999999999</v>
       </c>
       <c r="V15">
-        <v>1132.627</v>
+        <v>61.3</v>
       </c>
       <c r="W15">
-        <v>-405.68099999999998</v>
+        <v>-5.0030000000000001</v>
       </c>
       <c r="X15">
-        <v>-1181.3800000000001</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +2010,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>776.18499999999995</v>
+        <v>49.915999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>671.43399999999997</v>
+        <v>461.89</v>
       </c>
       <c r="D16">
-        <v>3624.35</v>
+        <v>266.65699999999998</v>
       </c>
       <c r="E16">
-        <v>1531.5550000000001</v>
+        <v>56.05</v>
       </c>
       <c r="F16">
-        <v>1681.7940000000001</v>
+        <v>151.024</v>
       </c>
       <c r="G16">
-        <v>4978.1170000000002</v>
+        <v>755.86199999999997</v>
       </c>
       <c r="H16">
-        <v>22249.123</v>
+        <v>2331.4949999999999</v>
       </c>
       <c r="I16">
-        <v>118.538</v>
+        <v>27.518000000000001</v>
       </c>
       <c r="J16">
-        <v>9943.17</v>
+        <v>1312.54</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2858.2</v>
+        <v>212.042</v>
       </c>
       <c r="O16">
-        <v>13510.565000000001</v>
+        <v>1713.0650000000001</v>
       </c>
       <c r="P16">
-        <v>10378.964</v>
+        <v>1327.44</v>
       </c>
       <c r="Q16">
-        <v>-10.675000000000001</v>
+        <v>523.91700000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>8738.5580000000009</v>
+        <v>618.42999999999995</v>
       </c>
       <c r="U16">
-        <v>3292.7269999999999</v>
+        <v>671.24099999999999</v>
       </c>
       <c r="V16">
-        <v>1258.2170000000001</v>
+        <v>172.28200000000001</v>
       </c>
       <c r="W16">
-        <v>-403.404</v>
+        <v>-102.90600000000001</v>
       </c>
       <c r="X16">
-        <v>-996.125</v>
+        <v>-223.803</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>671.43399999999997</v>
+        <v>461.89</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>671.70500000000004</v>
+        <v>-85.879000000000005</v>
       </c>
       <c r="D17">
-        <v>3533.1219999999998</v>
+        <v>343.63600000000002</v>
       </c>
       <c r="E17">
-        <v>1496.9870000000001</v>
+        <v>51.76</v>
       </c>
       <c r="F17">
-        <v>1649.2470000000001</v>
+        <v>173.43700000000001</v>
       </c>
       <c r="G17">
-        <v>4817.3370000000004</v>
+        <v>712.76800000000003</v>
       </c>
       <c r="H17">
-        <v>22027.780999999999</v>
+        <v>2785.511</v>
       </c>
       <c r="I17">
-        <v>109.86799999999999</v>
+        <v>28.376999999999999</v>
       </c>
       <c r="J17">
-        <v>9836.0149999999994</v>
+        <v>1777.81</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2619.4169999999999</v>
+        <v>291.25200000000001</v>
       </c>
       <c r="O17">
-        <v>13172.183000000001</v>
+        <v>2260.232</v>
       </c>
       <c r="P17">
-        <v>9938.6170000000002</v>
+        <v>1791.5440000000001</v>
       </c>
       <c r="Q17">
-        <v>-145.61799999999999</v>
+        <v>-62.283999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>8855.598</v>
+        <v>525.279</v>
       </c>
       <c r="U17">
-        <v>3147.1089999999999</v>
+        <v>622.19799999999998</v>
       </c>
       <c r="V17">
-        <v>1226.652</v>
+        <v>65.584000000000003</v>
       </c>
       <c r="W17">
-        <v>-400.72300000000001</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-1099.146</v>
+        <v>303.411</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,39 +2176,39 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>671.70500000000004</v>
+        <v>-85.879000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>721.30499999999995</v>
+        <v>-86.216999999999999</v>
       </c>
       <c r="D18">
-        <v>3415.9929999999999</v>
+        <v>347.577</v>
       </c>
       <c r="E18">
-        <v>1462.59</v>
+        <v>56.582000000000001</v>
       </c>
       <c r="F18">
-        <v>6286.8789999999999</v>
+        <v>170.07</v>
       </c>
       <c r="G18">
-        <v>5190.4989999999998</v>
+        <v>1405.126</v>
       </c>
       <c r="H18">
-        <v>22354.046999999999</v>
+        <v>3601.4780000000001</v>
       </c>
       <c r="I18">
-        <v>112.721</v>
+        <v>33.383000000000003</v>
       </c>
       <c r="J18">
-        <v>9892.9130000000005</v>
+        <v>1485.0640000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2699.9720000000002</v>
+        <v>612.55999999999995</v>
       </c>
       <c r="O18">
-        <v>13333.465</v>
+        <v>2285.4769999999999</v>
       </c>
       <c r="P18">
-        <v>9992.6470000000008</v>
+        <v>1789.9280000000001</v>
       </c>
       <c r="Q18">
-        <v>359.21</v>
+        <v>672.7</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>48500</v>
+        <v>10400</v>
       </c>
       <c r="T18">
-        <v>9020.5820000000003</v>
+        <v>1316.001</v>
       </c>
       <c r="U18">
-        <v>3506.319</v>
+        <v>1294.8979999999999</v>
       </c>
       <c r="V18">
-        <v>1215.348</v>
+        <v>74.203000000000003</v>
       </c>
       <c r="W18">
-        <v>-1176.8489999999999</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-445.13499999999999</v>
+        <v>739.84100000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,39 +2259,39 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>721.30499999999995</v>
+        <v>-86.216999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>511.923</v>
+        <v>7.1120000000000001</v>
       </c>
       <c r="D19">
-        <v>3011.6219999999998</v>
+        <v>403.79399999999998</v>
       </c>
       <c r="E19">
-        <v>1408.3810000000001</v>
+        <v>75.759</v>
       </c>
       <c r="F19">
-        <v>1428.3610000000001</v>
+        <v>211.68</v>
       </c>
       <c r="G19">
-        <v>3986.7840000000001</v>
+        <v>968.04</v>
       </c>
       <c r="H19">
-        <v>21046.081999999999</v>
+        <v>3297.92</v>
       </c>
       <c r="I19">
-        <v>93.727999999999994</v>
+        <v>26.527000000000001</v>
       </c>
       <c r="J19">
-        <v>9143.8330000000005</v>
+        <v>1433.6759999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,40 +2300,40 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-624.95000000000005</v>
+        <v>-844.97400000000005</v>
       </c>
       <c r="N19">
-        <v>2435.9070000000002</v>
+        <v>348.37400000000002</v>
       </c>
       <c r="O19">
-        <v>12305.199000000001</v>
+        <v>1967.87</v>
       </c>
       <c r="P19">
-        <v>9240.9979999999996</v>
+        <v>1497.7090000000001</v>
       </c>
       <c r="Q19">
-        <v>-1099.854</v>
+        <v>-495.28699999999998</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>8740.8829999999998</v>
+        <v>1330.05</v>
       </c>
       <c r="U19">
-        <v>2406.4650000000001</v>
+        <v>799.61099999999999</v>
       </c>
       <c r="V19">
-        <v>734.29499999999996</v>
+        <v>79.123000000000005</v>
       </c>
       <c r="W19">
-        <v>-826.96</v>
+        <v>-21.052</v>
       </c>
       <c r="X19">
-        <v>-1445.0889999999999</v>
+        <v>-417.76499999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2342,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>511.923</v>
+        <v>7.1120000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>469.173</v>
+        <v>86.429000000000002</v>
       </c>
       <c r="D20">
-        <v>2921.4209999999998</v>
+        <v>398.82100000000003</v>
       </c>
       <c r="E20">
-        <v>1342.146</v>
+        <v>66.385999999999996</v>
       </c>
       <c r="F20">
-        <v>1359.17</v>
+        <v>196.76400000000001</v>
       </c>
       <c r="G20">
-        <v>4318.6099999999997</v>
+        <v>795.50300000000004</v>
       </c>
       <c r="H20">
-        <v>21608.208999999999</v>
+        <v>3325.6559999999999</v>
       </c>
       <c r="I20">
-        <v>93.620999999999995</v>
+        <v>54.021000000000001</v>
       </c>
       <c r="J20">
-        <v>9720.134</v>
+        <v>1330.1079999999999</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2691.3339999999998</v>
+        <v>394.47</v>
       </c>
       <c r="O20">
-        <v>13139.45</v>
+        <v>1909.1769999999999</v>
       </c>
       <c r="P20">
-        <v>9818.3610000000008</v>
+        <v>1386.55</v>
       </c>
       <c r="Q20">
-        <v>412.21499999999997</v>
+        <v>-149.417</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>8468.759</v>
+        <v>1416.479</v>
       </c>
       <c r="U20">
-        <v>2818.68</v>
+        <v>650.19399999999996</v>
       </c>
       <c r="V20">
-        <v>847.23800000000006</v>
+        <v>204.404</v>
       </c>
       <c r="W20">
-        <v>-518.84400000000005</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-84.337000000000003</v>
+        <v>-131.72</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2425,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>469.173</v>
+        <v>86.429000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>519.35799999999995</v>
+        <v>80.096000000000004</v>
       </c>
       <c r="D21">
-        <v>2893.683</v>
+        <v>437.62200000000001</v>
       </c>
       <c r="E21">
-        <v>1315.191</v>
+        <v>53.631</v>
       </c>
       <c r="F21">
-        <v>1394.3489999999999</v>
+        <v>205.66</v>
       </c>
       <c r="G21">
-        <v>3329.223</v>
+        <v>716.14</v>
       </c>
       <c r="H21">
-        <v>20502.89</v>
+        <v>3693.335</v>
       </c>
       <c r="I21">
-        <v>96.027000000000001</v>
+        <v>28.657</v>
       </c>
       <c r="J21">
-        <v>9034.2710000000006</v>
+        <v>1537.5229999999999</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2364.64</v>
+        <v>474.178</v>
       </c>
       <c r="O21">
-        <v>12116.539000000001</v>
+        <v>2195.998</v>
       </c>
       <c r="P21">
-        <v>9128.9429999999993</v>
+        <v>1593.624</v>
       </c>
       <c r="Q21">
-        <v>-963.21400000000006</v>
+        <v>-60.290999999999997</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>8386.3510000000006</v>
+        <v>1497.337</v>
       </c>
       <c r="U21">
-        <v>1855.4659999999999</v>
+        <v>589.90300000000002</v>
       </c>
       <c r="V21">
-        <v>858.95299999999997</v>
+        <v>144.66999999999999</v>
       </c>
       <c r="W21">
-        <v>-828.41899999999998</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-1403.88</v>
+        <v>206.90899999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,39 +2508,39 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>519.35799999999995</v>
+        <v>80.096000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>465.54599999999999</v>
+        <v>110.04900000000001</v>
       </c>
       <c r="D22">
-        <v>2861.2739999999999</v>
+        <v>500.67500000000001</v>
       </c>
       <c r="E22">
-        <v>1231</v>
+        <v>84.778000000000006</v>
       </c>
       <c r="F22">
-        <v>4699.12</v>
+        <v>238.51499999999999</v>
       </c>
       <c r="G22">
-        <v>3609</v>
+        <v>644.70600000000002</v>
       </c>
       <c r="H22">
-        <v>20863</v>
+        <v>3879.739</v>
       </c>
       <c r="I22">
-        <v>111</v>
+        <v>34.802999999999997</v>
       </c>
       <c r="J22">
-        <v>9249</v>
+        <v>1625.9010000000001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2464</v>
+        <v>460.36799999999999</v>
       </c>
       <c r="O22">
-        <v>12445</v>
+        <v>2270.201</v>
       </c>
       <c r="P22">
-        <v>9344</v>
+        <v>1633.2260000000001</v>
       </c>
       <c r="Q22">
-        <v>323.85300000000001</v>
+        <v>-133.05699999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>46500</v>
+        <v>12230</v>
       </c>
       <c r="T22">
-        <v>8418</v>
+        <v>1609.538</v>
       </c>
       <c r="U22">
-        <v>2179</v>
+        <v>456.846</v>
       </c>
       <c r="V22">
-        <v>1009.514</v>
+        <v>161.71899999999999</v>
       </c>
       <c r="W22">
-        <v>-518.77700000000004</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-273.69400000000002</v>
+        <v>39.857999999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,39 +2591,39 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>465.54599999999999</v>
+        <v>110.04900000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>320</v>
+        <v>121.783</v>
       </c>
       <c r="D23">
-        <v>2717</v>
+        <v>530.36400000000003</v>
       </c>
       <c r="E23">
-        <v>1081.5440000000001</v>
+        <v>108.45</v>
       </c>
       <c r="F23">
-        <v>1257</v>
+        <v>259.108</v>
       </c>
       <c r="G23">
-        <v>2951.8939999999998</v>
+        <v>578.13099999999997</v>
       </c>
       <c r="H23">
-        <v>20384.909</v>
+        <v>4097.3339999999998</v>
       </c>
       <c r="I23">
-        <v>110.236</v>
+        <v>44.259</v>
       </c>
       <c r="J23">
-        <v>9235.223</v>
+        <v>1679.846</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,40 +2632,40 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-419</v>
+        <v>-52.151000000000003</v>
       </c>
       <c r="N23">
-        <v>2395.6999999999998</v>
+        <v>495.92899999999997</v>
       </c>
       <c r="O23">
-        <v>12370.932000000001</v>
+        <v>2360.5059999999999</v>
       </c>
       <c r="P23">
-        <v>9387.2430000000004</v>
+        <v>1687.336</v>
       </c>
       <c r="Q23">
-        <v>-483</v>
+        <v>-139.56899999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>8013.9769999999999</v>
+        <v>1736.828</v>
       </c>
       <c r="U23">
-        <v>1695.643</v>
+        <v>317.27699999999999</v>
       </c>
       <c r="V23">
-        <v>799</v>
+        <v>145.82599999999999</v>
       </c>
       <c r="W23">
-        <v>-572</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-951</v>
+        <v>56.548999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,39 +2674,39 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>320</v>
+        <v>121.783</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>328</v>
+        <v>109.32899999999999</v>
       </c>
       <c r="D24">
-        <v>2649</v>
+        <v>517.00699999999995</v>
       </c>
       <c r="E24">
-        <v>925.971</v>
+        <v>86.938999999999993</v>
       </c>
       <c r="F24">
-        <v>1295</v>
+        <v>239.226</v>
       </c>
       <c r="G24">
-        <v>3309.27</v>
+        <v>777.34799999999996</v>
       </c>
       <c r="H24">
-        <v>20980.531999999999</v>
+        <v>5740.8410000000003</v>
       </c>
       <c r="I24">
-        <v>106.405</v>
+        <v>45.683</v>
       </c>
       <c r="J24">
-        <v>10061.882</v>
+        <v>3156.799</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2619.7730000000001</v>
+        <v>545.35799999999995</v>
       </c>
       <c r="O24">
-        <v>13420.732</v>
+        <v>3890.694</v>
       </c>
       <c r="P24">
-        <v>10273.633</v>
+        <v>3162.9369999999999</v>
       </c>
       <c r="Q24">
-        <v>529</v>
+        <v>-35.277999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>7559.8</v>
+        <v>1850.1469999999999</v>
       </c>
       <c r="U24">
-        <v>2225.3029999999999</v>
+        <v>281.99900000000002</v>
       </c>
       <c r="V24">
-        <v>988</v>
+        <v>-48.645000000000003</v>
       </c>
       <c r="W24">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-55</v>
+        <v>1435.8040000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2757,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>328</v>
+        <v>109.32899999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>513</v>
+        <v>97.251000000000005</v>
       </c>
       <c r="D25">
-        <v>2969</v>
+        <v>553.22799999999995</v>
       </c>
       <c r="E25">
-        <v>868.09</v>
+        <v>102.129</v>
       </c>
       <c r="F25">
-        <v>1521</v>
+        <v>261.93099999999998</v>
       </c>
       <c r="G25">
-        <v>2838.683</v>
+        <v>998.30899999999997</v>
       </c>
       <c r="H25">
-        <v>20680.66</v>
+        <v>6778.473</v>
       </c>
       <c r="I25">
-        <v>123.218</v>
+        <v>44.08</v>
       </c>
       <c r="J25">
-        <v>9593.0990000000002</v>
+        <v>4023.9789999999998</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2773.953</v>
+        <v>621.76099999999997</v>
       </c>
       <c r="O25">
-        <v>13114.032999999999</v>
+        <v>4827.25</v>
       </c>
       <c r="P25">
-        <v>9756.9240000000009</v>
+        <v>4030.3919999999998</v>
       </c>
       <c r="Q25">
-        <v>-435</v>
+        <v>211.71</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>7566.6270000000004</v>
+        <v>1951.223</v>
       </c>
       <c r="U25">
-        <v>1790.4</v>
+        <v>493.709</v>
       </c>
       <c r="V25">
-        <v>1044</v>
+        <v>-468.01600000000002</v>
       </c>
       <c r="W25">
-        <v>-576</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-1071</v>
+        <v>853.35799999999995</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2840,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>513</v>
+        <v>97.251000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>509</v>
+        <v>113.64</v>
       </c>
       <c r="D26">
-        <v>3075</v>
+        <v>636.26</v>
       </c>
       <c r="E26">
-        <v>730</v>
+        <v>173.68299999999999</v>
       </c>
       <c r="F26">
-        <v>4740</v>
+        <v>308.77199999999999</v>
       </c>
       <c r="G26">
-        <v>3098</v>
+        <v>1093.557</v>
       </c>
       <c r="H26">
-        <v>20469</v>
+        <v>7126.4579999999996</v>
       </c>
       <c r="I26">
-        <v>128</v>
+        <v>51.037999999999997</v>
       </c>
       <c r="J26">
-        <v>9428</v>
+        <v>4136.152</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2806</v>
+        <v>734.64800000000002</v>
       </c>
       <c r="O26">
-        <v>12973</v>
+        <v>5051.3040000000001</v>
       </c>
       <c r="P26">
-        <v>9595</v>
+        <v>4142.6379999999999</v>
       </c>
       <c r="Q26">
-        <v>338</v>
+        <v>-25.643000000000001</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>49000</v>
+        <v>15280</v>
       </c>
       <c r="T26">
-        <v>7496</v>
+        <v>2075.154</v>
       </c>
       <c r="U26">
-        <v>2128</v>
+        <v>468.06599999999997</v>
       </c>
       <c r="V26">
-        <v>1213</v>
+        <v>174.11500000000001</v>
       </c>
       <c r="W26">
-        <v>-576</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-554</v>
+        <v>97.271000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2923,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>509</v>
+        <v>113.64</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>481</v>
+        <v>90.914000000000001</v>
       </c>
       <c r="D27">
-        <v>3067</v>
+        <v>628.21799999999996</v>
       </c>
       <c r="E27">
-        <v>683</v>
+        <v>120.854</v>
       </c>
       <c r="F27">
-        <v>1516</v>
+        <v>285.93299999999999</v>
       </c>
       <c r="G27">
-        <v>2820</v>
+        <v>909.52300000000002</v>
       </c>
       <c r="H27">
-        <v>20042</v>
+        <v>7535.652</v>
       </c>
       <c r="I27">
-        <v>104</v>
+        <v>56.192</v>
       </c>
       <c r="J27">
-        <v>9671</v>
+        <v>4258.3559999999998</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2964,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-220</v>
+        <v>-100.14</v>
       </c>
       <c r="N27">
-        <v>2512</v>
+        <v>915.52800000000002</v>
       </c>
       <c r="O27">
-        <v>12936</v>
+        <v>5359.2169999999996</v>
       </c>
       <c r="P27">
-        <v>9790</v>
+        <v>4423.9660000000003</v>
       </c>
       <c r="Q27">
-        <v>-172</v>
+        <v>-28.541</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7106</v>
+        <v>2176.4349999999999</v>
       </c>
       <c r="U27">
-        <v>1956</v>
+        <v>439.52499999999998</v>
       </c>
       <c r="V27">
-        <v>963</v>
+        <v>51.350999999999999</v>
       </c>
       <c r="W27">
-        <v>-579</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-954</v>
+        <v>281.71100000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +3006,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>481</v>
+        <v>90.914000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>546</v>
+        <v>34.398000000000003</v>
       </c>
       <c r="D28">
-        <v>3109</v>
+        <v>612.92600000000004</v>
       </c>
       <c r="E28">
-        <v>623</v>
+        <v>119.07</v>
       </c>
       <c r="F28">
-        <v>1580</v>
+        <v>262.00299999999999</v>
       </c>
       <c r="G28">
-        <v>3100</v>
+        <v>2348.498</v>
       </c>
       <c r="H28">
-        <v>20142</v>
+        <v>10447.843999999999</v>
       </c>
       <c r="I28">
-        <v>107</v>
+        <v>52.033999999999999</v>
       </c>
       <c r="J28">
-        <v>10014</v>
+        <v>7066.2730000000001</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>2559</v>
+        <v>974.48800000000006</v>
       </c>
       <c r="O28">
-        <v>13337</v>
+        <v>8227.3619999999992</v>
       </c>
       <c r="P28">
-        <v>10140</v>
+        <v>7109.8649999999998</v>
       </c>
       <c r="Q28">
-        <v>351</v>
+        <v>1345.578</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6805</v>
+        <v>2220.482</v>
       </c>
       <c r="U28">
-        <v>2307</v>
+        <v>1785.1030000000001</v>
       </c>
       <c r="V28">
-        <v>1146</v>
+        <v>125.96599999999999</v>
       </c>
       <c r="W28">
-        <v>-577</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-637</v>
+        <v>2634.4679999999998</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3089,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>546</v>
+        <v>34.398000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>569</v>
+        <v>-48.506999999999998</v>
       </c>
       <c r="D29">
-        <v>3161</v>
+        <v>660.95</v>
       </c>
       <c r="E29">
-        <v>637</v>
+        <v>152.30699999999999</v>
       </c>
       <c r="F29">
-        <v>1587</v>
+        <v>243.977</v>
       </c>
       <c r="G29">
-        <v>2836</v>
+        <v>2202.596</v>
       </c>
       <c r="H29">
-        <v>19808</v>
+        <v>11129.552</v>
       </c>
       <c r="I29">
-        <v>141</v>
+        <v>68.117999999999995</v>
       </c>
       <c r="J29">
-        <v>9483</v>
+        <v>5961.3689999999997</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2661</v>
+        <v>2775.712</v>
       </c>
       <c r="O29">
-        <v>12917</v>
+        <v>8926.5290000000005</v>
       </c>
       <c r="P29">
-        <v>9617</v>
+        <v>7291.1980000000003</v>
       </c>
       <c r="Q29">
-        <v>-305</v>
+        <v>-105.456</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>6891</v>
+        <v>2203.0230000000001</v>
       </c>
       <c r="U29">
-        <v>2001</v>
+        <v>1679.6469999999999</v>
       </c>
       <c r="V29">
-        <v>1113</v>
+        <v>41.926000000000002</v>
       </c>
       <c r="W29">
-        <v>-577</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-1218</v>
+        <v>150.68199999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>569</v>
+        <v>-48.506999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>1212</v>
+        <v>39.883000000000003</v>
       </c>
       <c r="D30">
-        <v>3391</v>
+        <v>1048.473</v>
       </c>
       <c r="E30">
-        <v>551</v>
+        <v>147.97200000000001</v>
       </c>
       <c r="F30">
-        <v>5316</v>
+        <v>412.81099999999998</v>
       </c>
       <c r="G30">
-        <v>3197</v>
+        <v>1379.086</v>
       </c>
       <c r="H30">
-        <v>20687</v>
+        <v>11466.517</v>
       </c>
       <c r="I30">
-        <v>171</v>
+        <v>99.022999999999996</v>
       </c>
       <c r="J30">
-        <v>9332</v>
+        <v>7517.9970000000003</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2956</v>
+        <v>1493.2729999999999</v>
       </c>
       <c r="O30">
-        <v>13060</v>
+        <v>9206.2430000000004</v>
       </c>
       <c r="P30">
-        <v>9640</v>
+        <v>7572.33</v>
       </c>
       <c r="Q30">
-        <v>418</v>
+        <v>-822.49699999999996</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>50500</v>
+        <v>28000</v>
       </c>
       <c r="T30">
-        <v>7627</v>
+        <v>2260.2739999999999</v>
       </c>
       <c r="U30">
-        <v>2419</v>
+        <v>857.15</v>
       </c>
       <c r="V30">
-        <v>1321</v>
+        <v>146.214</v>
       </c>
       <c r="W30">
-        <v>-578</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-678</v>
+        <v>256.00400000000002</v>
       </c>
       <c r="Y30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>1212</v>
+        <v>39.883000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1456</v>
+        <v>-11.234</v>
       </c>
       <c r="D31">
-        <v>3579</v>
+        <v>1079.0229999999999</v>
       </c>
       <c r="E31">
-        <v>587</v>
+        <v>253.614</v>
       </c>
       <c r="F31">
-        <v>1825</v>
+        <v>433.267</v>
       </c>
       <c r="G31">
-        <v>3394</v>
+        <v>1498.0609999999999</v>
       </c>
       <c r="H31">
-        <v>21504</v>
+        <v>12568.401</v>
       </c>
       <c r="I31">
-        <v>159</v>
+        <v>99.478999999999999</v>
       </c>
       <c r="J31">
-        <v>9508</v>
+        <v>8290.3320000000003</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3296,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-274</v>
+        <v>-1372.421</v>
       </c>
       <c r="N31">
-        <v>2874</v>
+        <v>1500.011</v>
       </c>
       <c r="O31">
-        <v>13147</v>
+        <v>10277.601000000001</v>
       </c>
       <c r="P31">
-        <v>9652</v>
+        <v>8368.6180000000004</v>
       </c>
       <c r="Q31">
-        <v>210</v>
+        <v>-1.788</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>8357</v>
+        <v>2290.8000000000002</v>
       </c>
       <c r="U31">
-        <v>2628</v>
+        <v>855.36199999999997</v>
       </c>
       <c r="V31">
-        <v>1397</v>
+        <v>72.435000000000002</v>
       </c>
       <c r="W31">
-        <v>-593</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-977</v>
+        <v>889.36300000000006</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>1456</v>
+        <v>-11.234</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>556</v>
+        <v>-8.7959999999999994</v>
       </c>
       <c r="D32">
-        <v>3303</v>
+        <v>1112.114</v>
       </c>
       <c r="E32">
-        <v>555</v>
+        <v>270.02499999999998</v>
       </c>
       <c r="F32">
-        <v>1597</v>
+        <v>432.39699999999999</v>
       </c>
       <c r="G32">
-        <v>5075</v>
+        <v>1360.643</v>
       </c>
       <c r="H32">
-        <v>22855</v>
+        <v>13282.222</v>
       </c>
       <c r="I32">
-        <v>154</v>
+        <v>103.61</v>
       </c>
       <c r="J32">
-        <v>11139</v>
+        <v>8812.7729999999992</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2992</v>
+        <v>1668.7280000000001</v>
       </c>
       <c r="O32">
-        <v>14893</v>
+        <v>10976.512000000001</v>
       </c>
       <c r="P32">
-        <v>11323</v>
+        <v>8923.4279999999999</v>
       </c>
       <c r="Q32">
-        <v>1722</v>
+        <v>-53.591999999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7962</v>
+        <v>2305.71</v>
       </c>
       <c r="U32">
-        <v>4350</v>
+        <v>801.77</v>
       </c>
       <c r="V32">
-        <v>1107</v>
+        <v>120.95699999999999</v>
       </c>
       <c r="W32">
-        <v>-590</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>809</v>
+        <v>538.65599999999995</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>556</v>
+        <v>-8.7959999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>571</v>
+        <v>-32.207999999999998</v>
       </c>
       <c r="D33">
-        <v>3372</v>
+        <v>1105.434</v>
       </c>
       <c r="E33">
-        <v>650</v>
+        <v>333.17599999999999</v>
       </c>
       <c r="F33">
-        <v>1650</v>
+        <v>373.19499999999999</v>
       </c>
       <c r="G33">
-        <v>5614</v>
+        <v>1996.9749999999999</v>
       </c>
       <c r="H33">
-        <v>23339</v>
+        <v>14759.412</v>
       </c>
       <c r="I33">
-        <v>153</v>
+        <v>96.344999999999999</v>
       </c>
       <c r="J33">
-        <v>11876</v>
+        <v>10251.106</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2906</v>
+        <v>1721.982</v>
       </c>
       <c r="O33">
-        <v>15541</v>
+        <v>12481.031000000001</v>
       </c>
       <c r="P33">
-        <v>11987</v>
+        <v>10350.42</v>
       </c>
       <c r="Q33">
-        <v>423</v>
+        <v>474.20499999999998</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7798</v>
+        <v>2278.3809999999999</v>
       </c>
       <c r="U33">
-        <v>4772</v>
+        <v>1275.9749999999999</v>
       </c>
       <c r="V33">
-        <v>896</v>
+        <v>23.751000000000001</v>
       </c>
       <c r="W33">
-        <v>-588</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-277</v>
+        <v>1496.0429999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>571</v>
+        <v>-32.207999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-170</v>
+        <v>-111.32</v>
       </c>
       <c r="D34">
-        <v>3475</v>
+        <v>1093.375</v>
       </c>
       <c r="E34">
-        <v>615</v>
+        <v>320.74599999999998</v>
       </c>
       <c r="F34">
-        <v>5773</v>
+        <v>382.33499999999998</v>
       </c>
       <c r="G34">
-        <v>5566</v>
+        <v>3741.2759999999998</v>
       </c>
       <c r="H34">
-        <v>22547</v>
+        <v>17144.113000000001</v>
       </c>
       <c r="I34">
-        <v>178</v>
+        <v>71.034999999999997</v>
       </c>
       <c r="J34">
-        <v>11862</v>
+        <v>10356.115</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3157</v>
+        <v>1530.4159999999999</v>
       </c>
       <c r="O34">
-        <v>15802</v>
+        <v>12400.643</v>
       </c>
       <c r="P34">
-        <v>11985</v>
+        <v>10470.737999999999</v>
       </c>
       <c r="Q34">
-        <v>-124</v>
+        <v>1762.1880000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>51500</v>
+        <v>28500</v>
       </c>
       <c r="T34">
-        <v>6745</v>
+        <v>4743.47</v>
       </c>
       <c r="U34">
-        <v>4648</v>
+        <v>3038.163</v>
       </c>
       <c r="V34">
-        <v>1301</v>
+        <v>-92.271000000000001</v>
       </c>
       <c r="W34">
-        <v>-581</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-1077</v>
+        <v>2684.0909999999999</v>
       </c>
       <c r="Y34">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>-170</v>
+        <v>-111.32</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>582</v>
+        <v>-34.606000000000002</v>
       </c>
       <c r="D35">
-        <v>3646</v>
+        <v>1079.0619999999999</v>
       </c>
       <c r="E35">
-        <v>737</v>
+        <v>345.95400000000001</v>
       </c>
       <c r="F35">
-        <v>1822</v>
+        <v>394.51299999999998</v>
       </c>
       <c r="G35">
-        <v>5055</v>
+        <v>3363.9079999999999</v>
       </c>
       <c r="H35">
-        <v>22313</v>
+        <v>16961.632000000001</v>
       </c>
       <c r="I35">
-        <v>152</v>
+        <v>68.215999999999994</v>
       </c>
       <c r="J35">
-        <v>11886</v>
+        <v>10274.76</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3628,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-26</v>
+        <v>-144.57499999999999</v>
       </c>
       <c r="N35">
-        <v>2917</v>
+        <v>1484.873</v>
       </c>
       <c r="O35">
-        <v>15873</v>
+        <v>12288.472</v>
       </c>
       <c r="P35">
-        <v>12335</v>
+        <v>10408.876</v>
       </c>
       <c r="Q35">
-        <v>-513</v>
+        <v>-279.69099999999997</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>6440</v>
+        <v>4673.16</v>
       </c>
       <c r="U35">
-        <v>4134</v>
+        <v>2758.4720000000002</v>
       </c>
       <c r="V35">
-        <v>820</v>
+        <v>145.715</v>
       </c>
       <c r="W35">
-        <v>-595</v>
+        <v>-24.472999999999999</v>
       </c>
       <c r="X35">
-        <v>-1089</v>
+        <v>8.4090000000000007</v>
       </c>
       <c r="Y35">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>582</v>
+        <v>-34.606000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>954</v>
+        <v>-175.94</v>
       </c>
       <c r="D36">
-        <v>3334</v>
+        <v>1058.7</v>
       </c>
       <c r="E36">
-        <v>767</v>
+        <v>367.24400000000003</v>
       </c>
       <c r="F36">
-        <v>1645</v>
+        <v>386.64699999999999</v>
       </c>
       <c r="G36">
-        <v>4957</v>
+        <v>3217.9409999999998</v>
       </c>
       <c r="H36">
-        <v>22594</v>
+        <v>17296.994999999999</v>
       </c>
       <c r="I36">
-        <v>138</v>
+        <v>88.141000000000005</v>
       </c>
       <c r="J36">
-        <v>11898</v>
+        <v>10636.26</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3031</v>
+        <v>1632.4459999999999</v>
       </c>
       <c r="O36">
-        <v>16012</v>
+        <v>12798.895</v>
       </c>
       <c r="P36">
-        <v>12353</v>
+        <v>10777.404</v>
       </c>
       <c r="Q36">
-        <v>-117</v>
+        <v>-173.43899999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>6582</v>
+        <v>4498.1000000000004</v>
       </c>
       <c r="U36">
-        <v>4017</v>
+        <v>2585.0329999999999</v>
       </c>
       <c r="V36">
-        <v>76</v>
+        <v>162.131</v>
       </c>
       <c r="W36">
-        <v>-593</v>
+        <v>-23.524000000000001</v>
       </c>
       <c r="X36">
-        <v>-1098</v>
+        <v>248.934</v>
       </c>
       <c r="Y36">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>954</v>
+        <v>-175.94</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>533</v>
+        <v>-76.506</v>
       </c>
       <c r="D37">
-        <v>3250</v>
+        <v>1141.144</v>
       </c>
       <c r="E37">
-        <v>757</v>
+        <v>375.20100000000002</v>
       </c>
       <c r="F37">
-        <v>1648</v>
+        <v>420.38099999999997</v>
       </c>
       <c r="G37">
-        <v>4808</v>
+        <v>3778.2570000000001</v>
       </c>
       <c r="H37">
-        <v>22427</v>
+        <v>18273.058000000001</v>
       </c>
       <c r="I37">
-        <v>170</v>
+        <v>78.671999999999997</v>
       </c>
       <c r="J37">
-        <v>11868</v>
+        <v>11604.476000000001</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3004</v>
+        <v>1725.596</v>
       </c>
       <c r="O37">
-        <v>15912</v>
+        <v>13855.513999999999</v>
       </c>
       <c r="P37">
-        <v>12267</v>
+        <v>11764.397000000001</v>
       </c>
       <c r="Q37">
-        <v>-199</v>
+        <v>506.81200000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>6515</v>
+        <v>4417.5439999999999</v>
       </c>
       <c r="U37">
-        <v>3817</v>
+        <v>3091.8449999999998</v>
       </c>
       <c r="V37">
-        <v>900</v>
+        <v>224.57300000000001</v>
       </c>
       <c r="W37">
-        <v>-592</v>
+        <v>-23.35</v>
       </c>
       <c r="X37">
-        <v>-781</v>
+        <v>834.12800000000004</v>
       </c>
       <c r="Y37">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>533</v>
+        <v>-76.506</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>629</v>
+        <v>-67.427000000000007</v>
       </c>
       <c r="D38">
-        <v>3509</v>
+        <v>1284.1990000000001</v>
       </c>
       <c r="E38">
-        <v>757</v>
+        <v>367.45</v>
       </c>
       <c r="F38">
-        <v>5772</v>
+        <v>1994.691</v>
       </c>
       <c r="G38">
-        <v>5305</v>
+        <v>5623.674</v>
       </c>
       <c r="H38">
-        <v>23199</v>
+        <v>20572.106</v>
       </c>
       <c r="I38">
-        <v>149</v>
+        <v>82.694999999999993</v>
       </c>
       <c r="J38">
-        <v>12413</v>
+        <v>10852.147000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>3224</v>
+        <v>1839.3050000000001</v>
       </c>
       <c r="O38">
-        <v>16692</v>
+        <v>13220.684999999999</v>
       </c>
       <c r="P38">
-        <v>12825</v>
+        <v>11025.462</v>
       </c>
       <c r="Q38">
-        <v>410</v>
+        <v>1863.5709999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>50000</v>
+        <v>27000</v>
       </c>
       <c r="T38">
-        <v>6507</v>
+        <v>7351.4210000000003</v>
       </c>
       <c r="U38">
-        <v>4226</v>
+        <v>4955.4160000000002</v>
       </c>
       <c r="V38">
-        <v>1242</v>
+        <v>106.194</v>
       </c>
       <c r="W38">
-        <v>-587</v>
+        <v>-23.35</v>
       </c>
       <c r="X38">
-        <v>-400</v>
+        <v>2214.502</v>
       </c>
       <c r="Y38">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>629</v>
+        <v>-67.427000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-1</v>
+        <v>17.581</v>
       </c>
       <c r="D39">
-        <v>1782</v>
+        <v>1334.8879999999999</v>
       </c>
       <c r="E39">
-        <v>607</v>
+        <v>436.07400000000001</v>
       </c>
       <c r="F39">
-        <v>771</v>
+        <v>507.892</v>
       </c>
       <c r="G39">
-        <v>3493</v>
+        <v>4756.558</v>
       </c>
       <c r="H39">
-        <v>21167</v>
+        <v>20093.457999999999</v>
       </c>
       <c r="I39">
-        <v>82</v>
+        <v>86.828999999999994</v>
       </c>
       <c r="J39">
-        <v>12234</v>
+        <v>10174.574000000001</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-16</v>
+        <v>-847.32600000000002</v>
       </c>
       <c r="N39">
-        <v>2419</v>
+        <v>1996.1759999999999</v>
       </c>
       <c r="O39">
-        <v>15710</v>
+        <v>12704.138000000001</v>
       </c>
       <c r="P39">
-        <v>12322</v>
+        <v>10461.393</v>
       </c>
       <c r="Q39">
-        <v>-1624</v>
+        <v>-1203.5709999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5457</v>
+        <v>7389.32</v>
       </c>
       <c r="U39">
-        <v>2602</v>
+        <v>3751.8449999999998</v>
       </c>
       <c r="V39">
-        <v>-370</v>
+        <v>282.79399999999998</v>
       </c>
       <c r="W39">
-        <v>-603</v>
+        <v>-23.35</v>
       </c>
       <c r="X39">
-        <v>-914</v>
+        <v>-599.36800000000005</v>
       </c>
       <c r="Y39">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-173.97800000000001</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>17.581</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-820</v>
+        <v>41.807000000000002</v>
       </c>
       <c r="D40">
-        <v>98</v>
+        <v>1594.4760000000001</v>
       </c>
       <c r="E40">
-        <v>461</v>
+        <v>530.33100000000002</v>
       </c>
       <c r="F40">
-        <v>-274</v>
+        <v>656.33199999999999</v>
       </c>
       <c r="G40">
-        <v>3772</v>
+        <v>4456.8239999999996</v>
       </c>
       <c r="H40">
-        <v>21695</v>
+        <v>20267.153999999999</v>
       </c>
       <c r="I40">
-        <v>64</v>
+        <v>119.15600000000001</v>
       </c>
       <c r="J40">
-        <v>13745</v>
+        <v>9826.6610000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2375</v>
+        <v>2394.645</v>
       </c>
       <c r="O40">
-        <v>17170</v>
+        <v>12806.165999999999</v>
       </c>
       <c r="P40">
-        <v>13838</v>
+        <v>10395.857</v>
       </c>
       <c r="Q40">
-        <v>414</v>
+        <v>-233.01</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4525</v>
+        <v>7460.9880000000003</v>
       </c>
       <c r="U40">
-        <v>3016</v>
+        <v>3518.835</v>
       </c>
       <c r="V40">
-        <v>-652</v>
+        <v>355.11099999999999</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-23.35</v>
       </c>
       <c r="X40">
-        <v>1461</v>
+        <v>-166.43199999999999</v>
       </c>
       <c r="Y40">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="AA40">
-        <v>-820</v>
+        <v>41.807000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-565</v>
+        <v>214.49700000000001</v>
       </c>
       <c r="D41">
-        <v>586</v>
+        <v>1908.7719999999999</v>
       </c>
       <c r="E41">
-        <v>339</v>
+        <v>618.99800000000005</v>
       </c>
       <c r="F41">
-        <v>83</v>
+        <v>868.21900000000005</v>
       </c>
       <c r="G41">
-        <v>2958</v>
+        <v>3313.56</v>
       </c>
       <c r="H41">
-        <v>20982</v>
+        <v>20247.996999999999</v>
       </c>
       <c r="I41">
-        <v>70</v>
+        <v>101.163</v>
       </c>
       <c r="J41">
-        <v>13818</v>
+        <v>9567.3909999999996</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2255</v>
+        <v>2315.9609999999998</v>
       </c>
       <c r="O41">
-        <v>17142</v>
+        <v>12445.778</v>
       </c>
       <c r="P41">
-        <v>13912</v>
+        <v>10139.849</v>
       </c>
       <c r="Q41">
-        <v>-634</v>
+        <v>-1124.123</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3840</v>
+        <v>7802.2190000000001</v>
       </c>
       <c r="U41">
-        <v>2381</v>
+        <v>2394.712</v>
       </c>
       <c r="V41">
-        <v>-294</v>
+        <v>570.09299999999996</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-23.35</v>
       </c>
       <c r="X41">
-        <v>28</v>
+        <v>-489.11700000000002</v>
       </c>
       <c r="Y41">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>173.774</v>
       </c>
       <c r="AA41">
-        <v>-565</v>
+        <v>214.49700000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>325.50900000000001</v>
+      </c>
+      <c r="D42">
+        <v>2015.046</v>
+      </c>
+      <c r="E42">
+        <v>673.01900000000001</v>
+      </c>
+      <c r="F42">
+        <v>3135.5520000000001</v>
+      </c>
+      <c r="G42">
+        <v>4058.9070000000002</v>
+      </c>
+      <c r="H42">
+        <v>21044.308000000001</v>
+      </c>
+      <c r="I42">
+        <v>113.505</v>
+      </c>
+      <c r="J42">
+        <v>9373.7549999999992</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2600.413</v>
+      </c>
+      <c r="O42">
+        <v>12609.741</v>
+      </c>
+      <c r="P42">
+        <v>10140.823</v>
+      </c>
+      <c r="Q42">
+        <v>642.36900000000003</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>34000</v>
+      </c>
+      <c r="T42">
+        <v>8434.5669999999991</v>
+      </c>
+      <c r="U42">
+        <v>3037.0810000000001</v>
+      </c>
+      <c r="V42">
+        <v>662.15300000000002</v>
+      </c>
+      <c r="W42">
+        <v>-23.35</v>
+      </c>
+      <c r="X42">
+        <v>127.36</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>325.50900000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>289.32299999999998</v>
+      </c>
+      <c r="D43">
+        <v>2111.9189999999999</v>
+      </c>
+      <c r="E43">
+        <v>803.1</v>
+      </c>
+      <c r="F43">
+        <v>982.98199999999997</v>
+      </c>
+      <c r="G43">
+        <v>4205.2849999999999</v>
+      </c>
+      <c r="H43">
+        <v>21236.99</v>
+      </c>
+      <c r="I43">
+        <v>87.733999999999995</v>
+      </c>
+      <c r="J43">
+        <v>9185.7520000000004</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-121.721</v>
+      </c>
+      <c r="N43">
+        <v>2586.9740000000002</v>
+      </c>
+      <c r="O43">
+        <v>12411.208000000001</v>
+      </c>
+      <c r="P43">
+        <v>10102.759</v>
+      </c>
+      <c r="Q43">
+        <v>96.86</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>8825.7819999999992</v>
+      </c>
+      <c r="U43">
+        <v>3133.9409999999998</v>
+      </c>
+      <c r="V43">
+        <v>418.37799999999999</v>
+      </c>
+      <c r="W43">
+        <v>-19.597999999999999</v>
+      </c>
+      <c r="X43">
+        <v>-147.79300000000001</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>289.32299999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>410.637</v>
+      </c>
+      <c r="D44">
+        <v>2345.096</v>
+      </c>
+      <c r="E44">
+        <v>968.98800000000006</v>
+      </c>
+      <c r="F44">
+        <v>1141.7909999999999</v>
+      </c>
+      <c r="G44">
+        <v>4721.3050000000003</v>
+      </c>
+      <c r="H44">
+        <v>21737.156999999999</v>
+      </c>
+      <c r="I44">
+        <v>92.953000000000003</v>
+      </c>
+      <c r="J44">
+        <v>8985.3960000000006</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2739.3420000000001</v>
+      </c>
+      <c r="O44">
+        <v>12370.507</v>
+      </c>
+      <c r="P44">
+        <v>10058.879999999999</v>
+      </c>
+      <c r="Q44">
+        <v>345.16500000000002</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>9366.65</v>
+      </c>
+      <c r="U44">
+        <v>3479.1060000000002</v>
+      </c>
+      <c r="V44">
+        <v>663.14499999999998</v>
+      </c>
+      <c r="W44">
+        <v>-19.219000000000001</v>
+      </c>
+      <c r="X44">
+        <v>-157.19300000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>410.637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>424.87900000000002</v>
+      </c>
+      <c r="D45">
+        <v>2409.375</v>
+      </c>
+      <c r="E45">
+        <v>1112.896</v>
+      </c>
+      <c r="F45">
+        <v>1191.4939999999999</v>
+      </c>
+      <c r="G45">
+        <v>5342.6559999999999</v>
+      </c>
+      <c r="H45">
+        <v>21965.251</v>
+      </c>
+      <c r="I45">
+        <v>103.319</v>
+      </c>
+      <c r="J45">
+        <v>9282.0840000000007</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2332.971</v>
+      </c>
+      <c r="O45">
+        <v>12267.013000000001</v>
+      </c>
+      <c r="P45">
+        <v>9739.4279999999999</v>
+      </c>
+      <c r="Q45">
+        <v>472.46899999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>9698.2379999999994</v>
+      </c>
+      <c r="U45">
+        <v>3951.5749999999998</v>
+      </c>
+      <c r="V45">
+        <v>847.65</v>
+      </c>
+      <c r="W45">
+        <v>-19.14</v>
+      </c>
+      <c r="X45">
+        <v>-215.625</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>424.87900000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>435.28399999999999</v>
+      </c>
+      <c r="D46">
+        <v>2544.355</v>
+      </c>
+      <c r="E46">
+        <v>1296.52</v>
+      </c>
+      <c r="F46">
+        <v>3891.8009999999999</v>
+      </c>
+      <c r="G46">
+        <v>5397.152</v>
+      </c>
+      <c r="H46">
+        <v>22244.123</v>
+      </c>
+      <c r="I46">
+        <v>104.113</v>
+      </c>
+      <c r="J46">
+        <v>9577.1309999999994</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2498.7060000000001</v>
+      </c>
+      <c r="O46">
+        <v>12804.971</v>
+      </c>
+      <c r="P46">
+        <v>10032.977000000001</v>
+      </c>
+      <c r="Q46">
+        <v>-48.856999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>40000</v>
+      </c>
+      <c r="T46">
+        <v>9439.152</v>
+      </c>
+      <c r="U46">
+        <v>3902.7179999999998</v>
+      </c>
+      <c r="V46">
+        <v>733.32299999999998</v>
+      </c>
+      <c r="W46">
+        <v>-17.34</v>
+      </c>
+      <c r="X46">
+        <v>-572.85</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>435.28399999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>498.94200000000001</v>
+      </c>
+      <c r="D47">
+        <v>2762.7420000000002</v>
+      </c>
+      <c r="E47">
+        <v>1530.34</v>
+      </c>
+      <c r="F47">
+        <v>1328.279</v>
+      </c>
+      <c r="G47">
+        <v>5722.7389999999996</v>
+      </c>
+      <c r="H47">
+        <v>22871.031999999999</v>
+      </c>
+      <c r="I47">
+        <v>105.205</v>
+      </c>
+      <c r="J47">
+        <v>9382.6489999999994</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-306.23099999999999</v>
+      </c>
+      <c r="N47">
+        <v>2492.8180000000002</v>
+      </c>
+      <c r="O47">
+        <v>12573.183999999999</v>
+      </c>
+      <c r="P47">
+        <v>9851.973</v>
+      </c>
+      <c r="Q47">
+        <v>153.642</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>10297.848</v>
+      </c>
+      <c r="U47">
+        <v>4056.36</v>
+      </c>
+      <c r="V47">
+        <v>667.45100000000002</v>
+      </c>
+      <c r="W47">
+        <v>-205.245</v>
+      </c>
+      <c r="X47">
+        <v>-144.57599999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>498.94200000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>240.58699999999999</v>
+      </c>
+      <c r="D48">
+        <v>2581.9059999999999</v>
+      </c>
+      <c r="E48">
+        <v>1561.7760000000001</v>
+      </c>
+      <c r="F48">
+        <v>1155.761</v>
+      </c>
+      <c r="G48">
+        <v>5225.5969999999998</v>
+      </c>
+      <c r="H48">
+        <v>22416.806</v>
+      </c>
+      <c r="I48">
+        <v>134.447</v>
+      </c>
+      <c r="J48">
+        <v>9276.4760000000006</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2249.4699999999998</v>
+      </c>
+      <c r="O48">
+        <v>12229.776</v>
+      </c>
+      <c r="P48">
+        <v>9374.2129999999997</v>
+      </c>
+      <c r="Q48">
+        <v>-534.36</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>10187.030000000001</v>
+      </c>
+      <c r="U48">
+        <v>3522</v>
+      </c>
+      <c r="V48">
+        <v>750.86800000000005</v>
+      </c>
+      <c r="W48">
+        <v>-205.34100000000001</v>
+      </c>
+      <c r="X48">
+        <v>-933.62300000000005</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>240.58699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>349.78199999999998</v>
+      </c>
+      <c r="D49">
+        <v>2709.482</v>
+      </c>
+      <c r="E49">
+        <v>1702.4580000000001</v>
+      </c>
+      <c r="F49">
+        <v>1211.1279999999999</v>
+      </c>
+      <c r="G49">
+        <v>5599.0770000000002</v>
+      </c>
+      <c r="H49">
+        <v>23158.362000000001</v>
+      </c>
+      <c r="I49">
+        <v>150.19200000000001</v>
+      </c>
+      <c r="J49">
+        <v>9397.866</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2519.9769999999999</v>
+      </c>
+      <c r="O49">
+        <v>12634.308000000001</v>
+      </c>
+      <c r="P49">
+        <v>9496.0020000000004</v>
+      </c>
+      <c r="Q49">
+        <v>223.41499999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>10524.054</v>
+      </c>
+      <c r="U49">
+        <v>3745.415</v>
+      </c>
+      <c r="V49">
+        <v>754.51400000000001</v>
+      </c>
+      <c r="W49">
+        <v>-205.46600000000001</v>
+      </c>
+      <c r="X49">
+        <v>-227.816</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>349.78199999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>434.78199999999998</v>
+      </c>
+      <c r="D50">
+        <v>3077.002</v>
+      </c>
+      <c r="E50">
+        <v>1771.732</v>
+      </c>
+      <c r="F50">
+        <v>4896.3890000000001</v>
+      </c>
+      <c r="G50">
+        <v>4477.5140000000001</v>
+      </c>
+      <c r="H50">
+        <v>22163.651999999998</v>
+      </c>
+      <c r="I50">
+        <v>106.498</v>
+      </c>
+      <c r="J50">
+        <v>10132.264999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2622.8229999999999</v>
+      </c>
+      <c r="O50">
+        <v>13505.24</v>
+      </c>
+      <c r="P50">
+        <v>10230.066999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-1232.6489999999999</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>46000</v>
+      </c>
+      <c r="T50">
+        <v>8658.4120000000003</v>
+      </c>
+      <c r="U50">
+        <v>2512.7660000000001</v>
+      </c>
+      <c r="V50">
+        <v>884.92399999999998</v>
+      </c>
+      <c r="W50">
+        <v>-301.89787000000001</v>
+      </c>
+      <c r="X50">
+        <v>-1739.2909999999999</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>434.78199999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>571.96100000000001</v>
+      </c>
+      <c r="D51">
+        <v>3302.7190000000001</v>
+      </c>
+      <c r="E51">
+        <v>1973.9839999999999</v>
+      </c>
+      <c r="F51">
+        <v>1514.912</v>
+      </c>
+      <c r="G51">
+        <v>4501.701</v>
+      </c>
+      <c r="H51">
+        <v>22010.953000000001</v>
+      </c>
+      <c r="I51">
+        <v>132.93100000000001</v>
+      </c>
+      <c r="J51">
+        <v>9731.0020000000004</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-334.57799999999997</v>
+      </c>
+      <c r="N51">
+        <v>2689.0259999999998</v>
+      </c>
+      <c r="O51">
+        <v>13166.828</v>
+      </c>
+      <c r="P51">
+        <v>9828.3490000000002</v>
+      </c>
+      <c r="Q51">
+        <v>-133.018</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>8844.125</v>
+      </c>
+      <c r="U51">
+        <v>2379.748</v>
+      </c>
+      <c r="V51">
+        <v>885.51800000000003</v>
+      </c>
+      <c r="W51">
+        <v>-288.55399999999997</v>
+      </c>
+      <c r="X51">
+        <v>-819.09199999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>571.96100000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>529.75300000000004</v>
+      </c>
+      <c r="D52">
+        <v>3242.9409999999998</v>
+      </c>
+      <c r="E52">
+        <v>1803.357</v>
+      </c>
+      <c r="F52">
+        <v>1470</v>
+      </c>
+      <c r="G52">
+        <v>4465.3590000000004</v>
+      </c>
+      <c r="H52">
+        <v>21783.824000000001</v>
+      </c>
+      <c r="I52">
+        <v>121.035</v>
+      </c>
+      <c r="J52">
+        <v>8511.2309999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3575.4270000000001</v>
+      </c>
+      <c r="O52">
+        <v>12826.777</v>
+      </c>
+      <c r="P52">
+        <v>9491.3989999999994</v>
+      </c>
+      <c r="Q52">
+        <v>134.393</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>8957.0470000000005</v>
+      </c>
+      <c r="U52">
+        <v>2514.1410000000001</v>
+      </c>
+      <c r="V52">
+        <v>1138.6890000000001</v>
+      </c>
+      <c r="W52">
+        <v>-288.98500000000001</v>
+      </c>
+      <c r="X52">
+        <v>-756.51199999999994</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>529.75300000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>626.74400000000003</v>
+      </c>
+      <c r="D53">
+        <v>3568.54</v>
+      </c>
+      <c r="E53">
+        <v>1848.5219999999999</v>
+      </c>
+      <c r="F53">
+        <v>1656.481</v>
+      </c>
+      <c r="G53">
+        <v>5207.268</v>
+      </c>
+      <c r="H53">
+        <v>22485.095000000001</v>
+      </c>
+      <c r="I53">
+        <v>114.741</v>
+      </c>
+      <c r="J53">
+        <v>8461.9920000000002</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>4045.1179999999999</v>
+      </c>
+      <c r="O53">
+        <v>13254.099</v>
+      </c>
+      <c r="P53">
+        <v>9763.616</v>
+      </c>
+      <c r="Q53">
+        <v>694.97900000000004</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>9230.9959999999992</v>
+      </c>
+      <c r="U53">
+        <v>3209.12</v>
+      </c>
+      <c r="V53">
+        <v>1136.576</v>
+      </c>
+      <c r="W53">
+        <v>-288.46199999999999</v>
+      </c>
+      <c r="X53">
+        <v>-237.798</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>626.74400000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>577.53899999999999</v>
+      </c>
+      <c r="D54">
+        <v>3655.6849999999999</v>
+      </c>
+      <c r="E54">
+        <v>1713.7180000000001</v>
+      </c>
+      <c r="F54">
+        <v>6152.0349999999999</v>
+      </c>
+      <c r="G54">
+        <v>5515.5389999999998</v>
+      </c>
+      <c r="H54">
+        <v>22724.263999999999</v>
+      </c>
+      <c r="I54">
+        <v>119.194</v>
+      </c>
+      <c r="J54">
+        <v>9382.7520000000004</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3129.665</v>
+      </c>
+      <c r="O54">
+        <v>13223.735000000001</v>
+      </c>
+      <c r="P54">
+        <v>9760.259</v>
+      </c>
+      <c r="Q54">
+        <v>391.29399999999998</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>48500</v>
+      </c>
+      <c r="T54">
+        <v>9500.5290000000005</v>
+      </c>
+      <c r="U54">
+        <v>3600.4140000000002</v>
+      </c>
+      <c r="V54">
+        <v>1278.6289999999999</v>
+      </c>
+      <c r="W54">
+        <v>-698.048</v>
+      </c>
+      <c r="X54">
+        <v>-619.048</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>577.53899999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>776.18499999999995</v>
+      </c>
+      <c r="D55">
+        <v>4010.384</v>
+      </c>
+      <c r="E55">
+        <v>1781.09</v>
+      </c>
+      <c r="F55">
+        <v>1870.509</v>
+      </c>
+      <c r="G55">
+        <v>5242.1120000000001</v>
+      </c>
+      <c r="H55">
+        <v>22474.600999999999</v>
+      </c>
+      <c r="I55">
+        <v>131.714</v>
+      </c>
+      <c r="J55">
+        <v>9968.8790000000008</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-828.06299999999999</v>
+      </c>
+      <c r="N55">
+        <v>2959.2550000000001</v>
+      </c>
+      <c r="O55">
+        <v>13641.588</v>
+      </c>
+      <c r="P55">
+        <v>10273.825999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-297.012</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>8833.0130000000008</v>
+      </c>
+      <c r="U55">
+        <v>3303.402</v>
+      </c>
+      <c r="V55">
+        <v>1132.627</v>
+      </c>
+      <c r="W55">
+        <v>-405.68099999999998</v>
+      </c>
+      <c r="X55">
+        <v>-1181.3800000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>776.18499999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>671.43399999999997</v>
+      </c>
+      <c r="D56">
+        <v>3624.35</v>
+      </c>
+      <c r="E56">
+        <v>1531.5550000000001</v>
+      </c>
+      <c r="F56">
+        <v>1681.7940000000001</v>
+      </c>
+      <c r="G56">
+        <v>4978.1170000000002</v>
+      </c>
+      <c r="H56">
+        <v>22249.123</v>
+      </c>
+      <c r="I56">
+        <v>118.538</v>
+      </c>
+      <c r="J56">
+        <v>9943.17</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2858.2</v>
+      </c>
+      <c r="O56">
+        <v>13510.565000000001</v>
+      </c>
+      <c r="P56">
+        <v>10378.964</v>
+      </c>
+      <c r="Q56">
+        <v>-10.675000000000001</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>8738.5580000000009</v>
+      </c>
+      <c r="U56">
+        <v>3292.7269999999999</v>
+      </c>
+      <c r="V56">
+        <v>1258.2170000000001</v>
+      </c>
+      <c r="W56">
+        <v>-403.404</v>
+      </c>
+      <c r="X56">
+        <v>-996.125</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>671.43399999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>671.70500000000004</v>
+      </c>
+      <c r="D57">
+        <v>3533.1219999999998</v>
+      </c>
+      <c r="E57">
+        <v>1496.9870000000001</v>
+      </c>
+      <c r="F57">
+        <v>1649.2470000000001</v>
+      </c>
+      <c r="G57">
+        <v>4817.3370000000004</v>
+      </c>
+      <c r="H57">
+        <v>22027.780999999999</v>
+      </c>
+      <c r="I57">
+        <v>109.86799999999999</v>
+      </c>
+      <c r="J57">
+        <v>9836.0149999999994</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>2619.4169999999999</v>
+      </c>
+      <c r="O57">
+        <v>13172.183000000001</v>
+      </c>
+      <c r="P57">
+        <v>9938.6170000000002</v>
+      </c>
+      <c r="Q57">
+        <v>-145.61799999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>8855.598</v>
+      </c>
+      <c r="U57">
+        <v>3147.1089999999999</v>
+      </c>
+      <c r="V57">
+        <v>1226.652</v>
+      </c>
+      <c r="W57">
+        <v>-400.72300000000001</v>
+      </c>
+      <c r="X57">
+        <v>-1099.146</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>671.70500000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>721.30499999999995</v>
+      </c>
+      <c r="D58">
+        <v>3415.9929999999999</v>
+      </c>
+      <c r="E58">
+        <v>1462.59</v>
+      </c>
+      <c r="F58">
+        <v>6286.8789999999999</v>
+      </c>
+      <c r="G58">
+        <v>5190.4989999999998</v>
+      </c>
+      <c r="H58">
+        <v>22354.046999999999</v>
+      </c>
+      <c r="I58">
+        <v>112.721</v>
+      </c>
+      <c r="J58">
+        <v>9892.9130000000005</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2699.9720000000002</v>
+      </c>
+      <c r="O58">
+        <v>13333.465</v>
+      </c>
+      <c r="P58">
+        <v>9992.6470000000008</v>
+      </c>
+      <c r="Q58">
+        <v>359.21</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>48500</v>
+      </c>
+      <c r="T58">
+        <v>9020.5820000000003</v>
+      </c>
+      <c r="U58">
+        <v>3506.319</v>
+      </c>
+      <c r="V58">
+        <v>1215.348</v>
+      </c>
+      <c r="W58">
+        <v>-1176.8489999999999</v>
+      </c>
+      <c r="X58">
+        <v>-445.13499999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>721.30499999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>511.923</v>
+      </c>
+      <c r="D59">
+        <v>3011.6219999999998</v>
+      </c>
+      <c r="E59">
+        <v>1408.3810000000001</v>
+      </c>
+      <c r="F59">
+        <v>1428.3610000000001</v>
+      </c>
+      <c r="G59">
+        <v>3986.7840000000001</v>
+      </c>
+      <c r="H59">
+        <v>21046.081999999999</v>
+      </c>
+      <c r="I59">
+        <v>93.727999999999994</v>
+      </c>
+      <c r="J59">
+        <v>9143.8330000000005</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-624.95000000000005</v>
+      </c>
+      <c r="N59">
+        <v>2435.9070000000002</v>
+      </c>
+      <c r="O59">
+        <v>12305.199000000001</v>
+      </c>
+      <c r="P59">
+        <v>9240.9979999999996</v>
+      </c>
+      <c r="Q59">
+        <v>-1099.854</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>8740.8829999999998</v>
+      </c>
+      <c r="U59">
+        <v>2406.4650000000001</v>
+      </c>
+      <c r="V59">
+        <v>734.29499999999996</v>
+      </c>
+      <c r="W59">
+        <v>-826.96</v>
+      </c>
+      <c r="X59">
+        <v>-1445.0889999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>511.923</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>469.173</v>
+      </c>
+      <c r="D60">
+        <v>2921.4209999999998</v>
+      </c>
+      <c r="E60">
+        <v>1342.146</v>
+      </c>
+      <c r="F60">
+        <v>1359.17</v>
+      </c>
+      <c r="G60">
+        <v>4318.6099999999997</v>
+      </c>
+      <c r="H60">
+        <v>21608.208999999999</v>
+      </c>
+      <c r="I60">
+        <v>93.620999999999995</v>
+      </c>
+      <c r="J60">
+        <v>9720.134</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2691.3339999999998</v>
+      </c>
+      <c r="O60">
+        <v>13139.45</v>
+      </c>
+      <c r="P60">
+        <v>9818.3610000000008</v>
+      </c>
+      <c r="Q60">
+        <v>412.21499999999997</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>8468.759</v>
+      </c>
+      <c r="U60">
+        <v>2818.68</v>
+      </c>
+      <c r="V60">
+        <v>847.23800000000006</v>
+      </c>
+      <c r="W60">
+        <v>-518.84400000000005</v>
+      </c>
+      <c r="X60">
+        <v>-84.337000000000003</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>469.173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>519.35799999999995</v>
+      </c>
+      <c r="D61">
+        <v>2893.683</v>
+      </c>
+      <c r="E61">
+        <v>1315.191</v>
+      </c>
+      <c r="F61">
+        <v>1394.3489999999999</v>
+      </c>
+      <c r="G61">
+        <v>3329.223</v>
+      </c>
+      <c r="H61">
+        <v>20502.89</v>
+      </c>
+      <c r="I61">
+        <v>96.027000000000001</v>
+      </c>
+      <c r="J61">
+        <v>9034.2710000000006</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2364.64</v>
+      </c>
+      <c r="O61">
+        <v>12116.539000000001</v>
+      </c>
+      <c r="P61">
+        <v>9128.9429999999993</v>
+      </c>
+      <c r="Q61">
+        <v>-963.21400000000006</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>8386.3510000000006</v>
+      </c>
+      <c r="U61">
+        <v>1855.4659999999999</v>
+      </c>
+      <c r="V61">
+        <v>858.95299999999997</v>
+      </c>
+      <c r="W61">
+        <v>-828.41899999999998</v>
+      </c>
+      <c r="X61">
+        <v>-1403.88</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>519.35799999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>465.54599999999999</v>
+      </c>
+      <c r="D62">
+        <v>2861.2739999999999</v>
+      </c>
+      <c r="E62">
+        <v>1231</v>
+      </c>
+      <c r="F62">
+        <v>4699.12</v>
+      </c>
+      <c r="G62">
+        <v>3609</v>
+      </c>
+      <c r="H62">
+        <v>20863</v>
+      </c>
+      <c r="I62">
+        <v>111</v>
+      </c>
+      <c r="J62">
+        <v>9249</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2464</v>
+      </c>
+      <c r="O62">
+        <v>12445</v>
+      </c>
+      <c r="P62">
+        <v>9344</v>
+      </c>
+      <c r="Q62">
+        <v>323.85300000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>46500</v>
+      </c>
+      <c r="T62">
+        <v>8418</v>
+      </c>
+      <c r="U62">
+        <v>2179</v>
+      </c>
+      <c r="V62">
+        <v>1009.514</v>
+      </c>
+      <c r="W62">
+        <v>-518.77700000000004</v>
+      </c>
+      <c r="X62">
+        <v>-273.69400000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>465.54599999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>320</v>
+      </c>
+      <c r="D63">
+        <v>2717</v>
+      </c>
+      <c r="E63">
+        <v>1081.5440000000001</v>
+      </c>
+      <c r="F63">
+        <v>1257</v>
+      </c>
+      <c r="G63">
+        <v>2951.8939999999998</v>
+      </c>
+      <c r="H63">
+        <v>20384.909</v>
+      </c>
+      <c r="I63">
+        <v>110.236</v>
+      </c>
+      <c r="J63">
+        <v>9235.223</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-419</v>
+      </c>
+      <c r="N63">
+        <v>2395.6999999999998</v>
+      </c>
+      <c r="O63">
+        <v>12370.932000000001</v>
+      </c>
+      <c r="P63">
+        <v>9387.2430000000004</v>
+      </c>
+      <c r="Q63">
+        <v>-483</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>8013.9769999999999</v>
+      </c>
+      <c r="U63">
+        <v>1695.643</v>
+      </c>
+      <c r="V63">
+        <v>799</v>
+      </c>
+      <c r="W63">
+        <v>-572</v>
+      </c>
+      <c r="X63">
+        <v>-951</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>328</v>
+      </c>
+      <c r="D64">
+        <v>2649</v>
+      </c>
+      <c r="E64">
+        <v>925.971</v>
+      </c>
+      <c r="F64">
+        <v>1295</v>
+      </c>
+      <c r="G64">
+        <v>3309.27</v>
+      </c>
+      <c r="H64">
+        <v>20980.531999999999</v>
+      </c>
+      <c r="I64">
+        <v>106.405</v>
+      </c>
+      <c r="J64">
+        <v>10061.882</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2619.7730000000001</v>
+      </c>
+      <c r="O64">
+        <v>13420.732</v>
+      </c>
+      <c r="P64">
+        <v>10273.633</v>
+      </c>
+      <c r="Q64">
+        <v>529</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>7559.8</v>
+      </c>
+      <c r="U64">
+        <v>2225.3029999999999</v>
+      </c>
+      <c r="V64">
+        <v>988</v>
+      </c>
+      <c r="W64">
+        <v>-1200</v>
+      </c>
+      <c r="X64">
+        <v>-55</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>513</v>
+      </c>
+      <c r="D65">
+        <v>2969</v>
+      </c>
+      <c r="E65">
+        <v>868.09</v>
+      </c>
+      <c r="F65">
+        <v>1521</v>
+      </c>
+      <c r="G65">
+        <v>2838.683</v>
+      </c>
+      <c r="H65">
+        <v>20680.66</v>
+      </c>
+      <c r="I65">
+        <v>123.218</v>
+      </c>
+      <c r="J65">
+        <v>9593.0990000000002</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2773.953</v>
+      </c>
+      <c r="O65">
+        <v>13114.032999999999</v>
+      </c>
+      <c r="P65">
+        <v>9756.9240000000009</v>
+      </c>
+      <c r="Q65">
+        <v>-435</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>7566.6270000000004</v>
+      </c>
+      <c r="U65">
+        <v>1790.4</v>
+      </c>
+      <c r="V65">
+        <v>1044</v>
+      </c>
+      <c r="W65">
+        <v>-576</v>
+      </c>
+      <c r="X65">
+        <v>-1071</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>509</v>
+      </c>
+      <c r="D66">
+        <v>3075</v>
+      </c>
+      <c r="E66">
+        <v>730</v>
+      </c>
+      <c r="F66">
+        <v>4740</v>
+      </c>
+      <c r="G66">
+        <v>3098</v>
+      </c>
+      <c r="H66">
+        <v>20469</v>
+      </c>
+      <c r="I66">
+        <v>128</v>
+      </c>
+      <c r="J66">
+        <v>9428</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2806</v>
+      </c>
+      <c r="O66">
+        <v>12973</v>
+      </c>
+      <c r="P66">
+        <v>9595</v>
+      </c>
+      <c r="Q66">
+        <v>338</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>49000</v>
+      </c>
+      <c r="T66">
+        <v>7496</v>
+      </c>
+      <c r="U66">
+        <v>2128</v>
+      </c>
+      <c r="V66">
+        <v>1213</v>
+      </c>
+      <c r="W66">
+        <v>-576</v>
+      </c>
+      <c r="X66">
+        <v>-554</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>481</v>
+      </c>
+      <c r="D67">
+        <v>3067</v>
+      </c>
+      <c r="E67">
+        <v>683</v>
+      </c>
+      <c r="F67">
+        <v>1516</v>
+      </c>
+      <c r="G67">
+        <v>2820</v>
+      </c>
+      <c r="H67">
+        <v>20042</v>
+      </c>
+      <c r="I67">
+        <v>104</v>
+      </c>
+      <c r="J67">
+        <v>9671</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-220</v>
+      </c>
+      <c r="N67">
+        <v>2512</v>
+      </c>
+      <c r="O67">
+        <v>12936</v>
+      </c>
+      <c r="P67">
+        <v>9790</v>
+      </c>
+      <c r="Q67">
+        <v>-172</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>7106</v>
+      </c>
+      <c r="U67">
+        <v>1956</v>
+      </c>
+      <c r="V67">
+        <v>963</v>
+      </c>
+      <c r="W67">
+        <v>-579</v>
+      </c>
+      <c r="X67">
+        <v>-954</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>546</v>
+      </c>
+      <c r="D68">
+        <v>3109</v>
+      </c>
+      <c r="E68">
+        <v>623</v>
+      </c>
+      <c r="F68">
+        <v>1580</v>
+      </c>
+      <c r="G68">
+        <v>3100</v>
+      </c>
+      <c r="H68">
+        <v>20142</v>
+      </c>
+      <c r="I68">
+        <v>107</v>
+      </c>
+      <c r="J68">
+        <v>10014</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>2559</v>
+      </c>
+      <c r="O68">
+        <v>13337</v>
+      </c>
+      <c r="P68">
+        <v>10140</v>
+      </c>
+      <c r="Q68">
+        <v>351</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6805</v>
+      </c>
+      <c r="U68">
+        <v>2307</v>
+      </c>
+      <c r="V68">
+        <v>1146</v>
+      </c>
+      <c r="W68">
+        <v>-577</v>
+      </c>
+      <c r="X68">
+        <v>-637</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>569</v>
+      </c>
+      <c r="D69">
+        <v>3161</v>
+      </c>
+      <c r="E69">
+        <v>637</v>
+      </c>
+      <c r="F69">
+        <v>1587</v>
+      </c>
+      <c r="G69">
+        <v>2836</v>
+      </c>
+      <c r="H69">
+        <v>19808</v>
+      </c>
+      <c r="I69">
+        <v>141</v>
+      </c>
+      <c r="J69">
+        <v>9483</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2661</v>
+      </c>
+      <c r="O69">
+        <v>12917</v>
+      </c>
+      <c r="P69">
+        <v>9617</v>
+      </c>
+      <c r="Q69">
+        <v>-305</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>6891</v>
+      </c>
+      <c r="U69">
+        <v>2001</v>
+      </c>
+      <c r="V69">
+        <v>1113</v>
+      </c>
+      <c r="W69">
+        <v>-577</v>
+      </c>
+      <c r="X69">
+        <v>-1218</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>1212</v>
+      </c>
+      <c r="D70">
+        <v>3391</v>
+      </c>
+      <c r="E70">
+        <v>551</v>
+      </c>
+      <c r="F70">
+        <v>5316</v>
+      </c>
+      <c r="G70">
+        <v>3197</v>
+      </c>
+      <c r="H70">
+        <v>20687</v>
+      </c>
+      <c r="I70">
+        <v>171</v>
+      </c>
+      <c r="J70">
+        <v>9332</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2956</v>
+      </c>
+      <c r="O70">
+        <v>13060</v>
+      </c>
+      <c r="P70">
+        <v>9640</v>
+      </c>
+      <c r="Q70">
+        <v>418</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>50500</v>
+      </c>
+      <c r="T70">
+        <v>7627</v>
+      </c>
+      <c r="U70">
+        <v>2419</v>
+      </c>
+      <c r="V70">
+        <v>1321</v>
+      </c>
+      <c r="W70">
+        <v>-578</v>
+      </c>
+      <c r="X70">
+        <v>-678</v>
+      </c>
+      <c r="Y70">
+        <v>12</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1456</v>
+      </c>
+      <c r="D71">
+        <v>3579</v>
+      </c>
+      <c r="E71">
+        <v>587</v>
+      </c>
+      <c r="F71">
+        <v>1825</v>
+      </c>
+      <c r="G71">
+        <v>3394</v>
+      </c>
+      <c r="H71">
+        <v>21504</v>
+      </c>
+      <c r="I71">
+        <v>159</v>
+      </c>
+      <c r="J71">
+        <v>9508</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-274</v>
+      </c>
+      <c r="N71">
+        <v>2874</v>
+      </c>
+      <c r="O71">
+        <v>13147</v>
+      </c>
+      <c r="P71">
+        <v>9652</v>
+      </c>
+      <c r="Q71">
+        <v>210</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8357</v>
+      </c>
+      <c r="U71">
+        <v>2628</v>
+      </c>
+      <c r="V71">
+        <v>1397</v>
+      </c>
+      <c r="W71">
+        <v>-593</v>
+      </c>
+      <c r="X71">
+        <v>-977</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>556</v>
+      </c>
+      <c r="D72">
+        <v>3303</v>
+      </c>
+      <c r="E72">
+        <v>555</v>
+      </c>
+      <c r="F72">
+        <v>1597</v>
+      </c>
+      <c r="G72">
+        <v>5075</v>
+      </c>
+      <c r="H72">
+        <v>22855</v>
+      </c>
+      <c r="I72">
+        <v>154</v>
+      </c>
+      <c r="J72">
+        <v>11139</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2992</v>
+      </c>
+      <c r="O72">
+        <v>14893</v>
+      </c>
+      <c r="P72">
+        <v>11323</v>
+      </c>
+      <c r="Q72">
+        <v>1722</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>7962</v>
+      </c>
+      <c r="U72">
+        <v>4350</v>
+      </c>
+      <c r="V72">
+        <v>1107</v>
+      </c>
+      <c r="W72">
+        <v>-590</v>
+      </c>
+      <c r="X72">
+        <v>809</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>571</v>
+      </c>
+      <c r="D73">
+        <v>3372</v>
+      </c>
+      <c r="E73">
+        <v>650</v>
+      </c>
+      <c r="F73">
+        <v>1650</v>
+      </c>
+      <c r="G73">
+        <v>5614</v>
+      </c>
+      <c r="H73">
+        <v>23339</v>
+      </c>
+      <c r="I73">
+        <v>153</v>
+      </c>
+      <c r="J73">
+        <v>11876</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2906</v>
+      </c>
+      <c r="O73">
+        <v>15541</v>
+      </c>
+      <c r="P73">
+        <v>11987</v>
+      </c>
+      <c r="Q73">
+        <v>423</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7798</v>
+      </c>
+      <c r="U73">
+        <v>4772</v>
+      </c>
+      <c r="V73">
+        <v>896</v>
+      </c>
+      <c r="W73">
+        <v>-588</v>
+      </c>
+      <c r="X73">
+        <v>-277</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-170</v>
+      </c>
+      <c r="D74">
+        <v>3475</v>
+      </c>
+      <c r="E74">
+        <v>615</v>
+      </c>
+      <c r="F74">
+        <v>5773</v>
+      </c>
+      <c r="G74">
+        <v>5566</v>
+      </c>
+      <c r="H74">
+        <v>22547</v>
+      </c>
+      <c r="I74">
+        <v>178</v>
+      </c>
+      <c r="J74">
+        <v>11862</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3157</v>
+      </c>
+      <c r="O74">
+        <v>15802</v>
+      </c>
+      <c r="P74">
+        <v>11985</v>
+      </c>
+      <c r="Q74">
+        <v>-124</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>51500</v>
+      </c>
+      <c r="T74">
+        <v>6745</v>
+      </c>
+      <c r="U74">
+        <v>4648</v>
+      </c>
+      <c r="V74">
+        <v>1301</v>
+      </c>
+      <c r="W74">
+        <v>-581</v>
+      </c>
+      <c r="X74">
+        <v>-1077</v>
+      </c>
+      <c r="Y74">
+        <v>12</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>582</v>
+      </c>
+      <c r="D75">
+        <v>3646</v>
+      </c>
+      <c r="E75">
+        <v>737</v>
+      </c>
+      <c r="F75">
+        <v>1822</v>
+      </c>
+      <c r="G75">
+        <v>5055</v>
+      </c>
+      <c r="H75">
+        <v>22313</v>
+      </c>
+      <c r="I75">
+        <v>152</v>
+      </c>
+      <c r="J75">
+        <v>11886</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-26</v>
+      </c>
+      <c r="N75">
+        <v>2917</v>
+      </c>
+      <c r="O75">
+        <v>15873</v>
+      </c>
+      <c r="P75">
+        <v>12335</v>
+      </c>
+      <c r="Q75">
+        <v>-513</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>6440</v>
+      </c>
+      <c r="U75">
+        <v>4134</v>
+      </c>
+      <c r="V75">
+        <v>820</v>
+      </c>
+      <c r="W75">
+        <v>-595</v>
+      </c>
+      <c r="X75">
+        <v>-1089</v>
+      </c>
+      <c r="Y75">
+        <v>311</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>954</v>
+      </c>
+      <c r="D76">
+        <v>3334</v>
+      </c>
+      <c r="E76">
+        <v>767</v>
+      </c>
+      <c r="F76">
+        <v>1645</v>
+      </c>
+      <c r="G76">
+        <v>4957</v>
+      </c>
+      <c r="H76">
+        <v>22594</v>
+      </c>
+      <c r="I76">
+        <v>138</v>
+      </c>
+      <c r="J76">
+        <v>11898</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3031</v>
+      </c>
+      <c r="O76">
+        <v>16012</v>
+      </c>
+      <c r="P76">
+        <v>12353</v>
+      </c>
+      <c r="Q76">
+        <v>-117</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>6582</v>
+      </c>
+      <c r="U76">
+        <v>4017</v>
+      </c>
+      <c r="V76">
+        <v>76</v>
+      </c>
+      <c r="W76">
+        <v>-593</v>
+      </c>
+      <c r="X76">
+        <v>-1098</v>
+      </c>
+      <c r="Y76">
+        <v>313</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>533</v>
+      </c>
+      <c r="D77">
+        <v>3250</v>
+      </c>
+      <c r="E77">
+        <v>757</v>
+      </c>
+      <c r="F77">
+        <v>1648</v>
+      </c>
+      <c r="G77">
+        <v>4808</v>
+      </c>
+      <c r="H77">
+        <v>22427</v>
+      </c>
+      <c r="I77">
+        <v>170</v>
+      </c>
+      <c r="J77">
+        <v>11868</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3004</v>
+      </c>
+      <c r="O77">
+        <v>15912</v>
+      </c>
+      <c r="P77">
+        <v>12267</v>
+      </c>
+      <c r="Q77">
+        <v>-199</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>6515</v>
+      </c>
+      <c r="U77">
+        <v>3817</v>
+      </c>
+      <c r="V77">
+        <v>900</v>
+      </c>
+      <c r="W77">
+        <v>-592</v>
+      </c>
+      <c r="X77">
+        <v>-781</v>
+      </c>
+      <c r="Y77">
+        <v>308</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>629</v>
+      </c>
+      <c r="D78">
+        <v>3509</v>
+      </c>
+      <c r="E78">
+        <v>757</v>
+      </c>
+      <c r="F78">
+        <v>5772</v>
+      </c>
+      <c r="G78">
+        <v>5305</v>
+      </c>
+      <c r="H78">
+        <v>23199</v>
+      </c>
+      <c r="I78">
+        <v>149</v>
+      </c>
+      <c r="J78">
+        <v>12413</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>3224</v>
+      </c>
+      <c r="O78">
+        <v>16692</v>
+      </c>
+      <c r="P78">
+        <v>12825</v>
+      </c>
+      <c r="Q78">
+        <v>410</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>50000</v>
+      </c>
+      <c r="T78">
+        <v>6507</v>
+      </c>
+      <c r="U78">
+        <v>4226</v>
+      </c>
+      <c r="V78">
+        <v>1242</v>
+      </c>
+      <c r="W78">
+        <v>-587</v>
+      </c>
+      <c r="X78">
+        <v>-400</v>
+      </c>
+      <c r="Y78">
+        <v>314</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-1</v>
+      </c>
+      <c r="D79">
+        <v>1782</v>
+      </c>
+      <c r="E79">
+        <v>607</v>
+      </c>
+      <c r="F79">
+        <v>771</v>
+      </c>
+      <c r="G79">
+        <v>3493</v>
+      </c>
+      <c r="H79">
+        <v>21167</v>
+      </c>
+      <c r="I79">
+        <v>82</v>
+      </c>
+      <c r="J79">
+        <v>12234</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-16</v>
+      </c>
+      <c r="N79">
+        <v>2419</v>
+      </c>
+      <c r="O79">
+        <v>15710</v>
+      </c>
+      <c r="P79">
+        <v>12322</v>
+      </c>
+      <c r="Q79">
+        <v>-1624</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5457</v>
+      </c>
+      <c r="U79">
+        <v>2602</v>
+      </c>
+      <c r="V79">
+        <v>-370</v>
+      </c>
+      <c r="W79">
+        <v>-603</v>
+      </c>
+      <c r="X79">
+        <v>-914</v>
+      </c>
+      <c r="Y79">
+        <v>19</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-820</v>
+      </c>
+      <c r="D80">
+        <v>98</v>
+      </c>
+      <c r="E80">
+        <v>461</v>
+      </c>
+      <c r="F80">
+        <v>-274</v>
+      </c>
+      <c r="G80">
+        <v>3772</v>
+      </c>
+      <c r="H80">
+        <v>21695</v>
+      </c>
+      <c r="I80">
+        <v>64</v>
+      </c>
+      <c r="J80">
+        <v>13745</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2375</v>
+      </c>
+      <c r="O80">
+        <v>17170</v>
+      </c>
+      <c r="P80">
+        <v>13838</v>
+      </c>
+      <c r="Q80">
+        <v>414</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4525</v>
+      </c>
+      <c r="U80">
+        <v>3016</v>
+      </c>
+      <c r="V80">
+        <v>-652</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>1461</v>
+      </c>
+      <c r="Y80">
+        <v>22</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-820</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-565</v>
+      </c>
+      <c r="D81">
+        <v>586</v>
+      </c>
+      <c r="E81">
+        <v>339</v>
+      </c>
+      <c r="F81">
+        <v>83</v>
+      </c>
+      <c r="G81">
+        <v>2958</v>
+      </c>
+      <c r="H81">
+        <v>20982</v>
+      </c>
+      <c r="I81">
+        <v>70</v>
+      </c>
+      <c r="J81">
+        <v>13818</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2255</v>
+      </c>
+      <c r="O81">
+        <v>17142</v>
+      </c>
+      <c r="P81">
+        <v>13912</v>
+      </c>
+      <c r="Q81">
+        <v>-634</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3840</v>
+      </c>
+      <c r="U81">
+        <v>2381</v>
+      </c>
+      <c r="V81">
+        <v>-294</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>28</v>
+      </c>
+      <c r="Y81">
+        <v>22</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>-565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>-299</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1146</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>277</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1258</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2644</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>20807</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>98</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>13919</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2309</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>17269</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>14330</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-261</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>44500</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3538</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>2121</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>4</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-15</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>306</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>-299</v>
       </c>
     </row>
